--- a/capiq_data/in_process_data/IQ22751.xlsx
+++ b/capiq_data/in_process_data/IQ22751.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB25A7A8-62B2-4C21-A442-617EFD8632D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB72621-C74E-4383-8A6F-74330071D819}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"45759fea-a11e-4cc5-af52-fc5a0e37f525"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"0e7739d1-88e0-4360-bb1a-44ac5f3ee322"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,123 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +850,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36922</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>107.31100000000001</v>
+        <v>11.76</v>
       </c>
       <c r="D2">
-        <v>679.47900000000004</v>
+        <v>137.66399999999999</v>
       </c>
       <c r="E2">
-        <v>478.95699999999999</v>
+        <v>112.002</v>
       </c>
       <c r="F2">
-        <v>371.86500000000001</v>
+        <v>69.741</v>
       </c>
       <c r="G2">
-        <v>998.09100000000001</v>
+        <v>218.03299999999999</v>
       </c>
       <c r="H2">
-        <v>5069.5240000000003</v>
+        <v>600.80899999999997</v>
       </c>
       <c r="I2">
-        <v>137.77799999999999</v>
+        <v>28.515000000000001</v>
       </c>
       <c r="J2">
-        <v>1247.703</v>
+        <v>218.41900000000001</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -769,40 +886,40 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-17.763000000000002</v>
       </c>
       <c r="N2">
-        <v>539.64499999999998</v>
+        <v>90.906000000000006</v>
       </c>
       <c r="O2">
-        <v>2318.6170000000002</v>
+        <v>317.45999999999998</v>
       </c>
       <c r="P2">
-        <v>1341.0450000000001</v>
+        <v>225.90600000000001</v>
       </c>
       <c r="Q2">
-        <v>19.581</v>
+        <v>3.9529999999999998</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36922</v>
       </c>
       <c r="S2">
-        <v>8050</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2750.9070000000002</v>
+        <v>283.34899999999999</v>
       </c>
       <c r="U2">
-        <v>270.39400000000001</v>
+        <v>15.324999999999999</v>
       </c>
       <c r="V2">
-        <v>155.12200000000001</v>
+        <v>25.238</v>
       </c>
       <c r="W2">
-        <v>-8.984</v>
+        <v>-2.2970000000000002</v>
       </c>
       <c r="X2">
-        <v>-125.71</v>
+        <v>-19.213999999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +928,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>107.31100000000001</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>37011</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>88.978999999999999</v>
+        <v>13.862</v>
       </c>
       <c r="D3">
-        <v>645.30899999999997</v>
+        <v>146.83000000000001</v>
       </c>
       <c r="E3">
-        <v>492.44299999999998</v>
+        <v>104.15900000000001</v>
       </c>
       <c r="F3">
-        <v>350.096</v>
+        <v>75.658000000000001</v>
       </c>
       <c r="G3">
-        <v>1029.6400000000001</v>
+        <v>209.46700000000001</v>
       </c>
       <c r="H3">
-        <v>5096.8940000000002</v>
+        <v>585.47799999999995</v>
       </c>
       <c r="I3">
-        <v>147.01499999999999</v>
+        <v>27.053999999999998</v>
       </c>
       <c r="J3">
-        <v>1159.961</v>
+        <v>194.16399999999999</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>7.9359999999999999</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-96.968000000000004</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>507.541</v>
+        <v>87.097999999999999</v>
       </c>
       <c r="O3">
-        <v>2214.7649999999999</v>
+        <v>289.14999999999998</v>
       </c>
       <c r="P3">
-        <v>1241.787</v>
+        <v>202.1</v>
       </c>
       <c r="Q3">
-        <v>-8.9469999999999992</v>
+        <v>-3.8479999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>37011</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2882.1289999999999</v>
+        <v>296.32799999999997</v>
       </c>
       <c r="U3">
-        <v>261.447</v>
+        <v>11.477</v>
       </c>
       <c r="V3">
-        <v>86.584000000000003</v>
+        <v>21.204000000000001</v>
       </c>
       <c r="W3">
-        <v>-10.458</v>
+        <v>-2.306</v>
       </c>
       <c r="X3">
-        <v>-96.081999999999994</v>
+        <v>-22.971</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1011,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>88.978999999999999</v>
+        <v>13.862</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37103</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>106.31100000000001</v>
+        <v>13.132999999999999</v>
       </c>
       <c r="D4">
-        <v>699.87099999999998</v>
+        <v>137.96899999999999</v>
       </c>
       <c r="E4">
-        <v>512.22900000000004</v>
+        <v>102.15300000000001</v>
       </c>
       <c r="F4">
-        <v>377.06299999999999</v>
+        <v>73.819000000000003</v>
       </c>
       <c r="G4">
-        <v>1002.059</v>
+        <v>223.37700000000001</v>
       </c>
       <c r="H4">
-        <v>5263.9920000000002</v>
+        <v>616.20299999999997</v>
       </c>
       <c r="I4">
-        <v>153.518</v>
+        <v>25.692</v>
       </c>
       <c r="J4">
-        <v>1173.694</v>
+        <v>212.148</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6.9989999999999997</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1055,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>541.62300000000005</v>
+        <v>88.754999999999995</v>
       </c>
       <c r="O4">
-        <v>2280.4380000000001</v>
+        <v>308.94799999999998</v>
       </c>
       <c r="P4">
-        <v>1246.0129999999999</v>
+        <v>219.14699999999999</v>
       </c>
       <c r="Q4">
-        <v>-65.42</v>
+        <v>16.841999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37103</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2983.5540000000001</v>
+        <v>307.255</v>
       </c>
       <c r="U4">
-        <v>196.02699999999999</v>
+        <v>28.318999999999999</v>
       </c>
       <c r="V4">
-        <v>155.93299999999999</v>
+        <v>25.193000000000001</v>
       </c>
       <c r="W4">
-        <v>-10.544</v>
+        <v>-2.3140000000000001</v>
       </c>
       <c r="X4">
-        <v>-5.8609999999999998</v>
+        <v>16.911999999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,39 +1094,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>106.31100000000001</v>
+        <v>13.132999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37195</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>110.28100000000001</v>
+        <v>17.084</v>
       </c>
       <c r="D5">
-        <v>712.70500000000004</v>
+        <v>164.04300000000001</v>
       </c>
       <c r="E5">
-        <v>495.09899999999999</v>
+        <v>121.271</v>
       </c>
       <c r="F5">
-        <v>382.55599999999998</v>
+        <v>89.751999999999995</v>
       </c>
       <c r="G5">
-        <v>1030.0229999999999</v>
+        <v>232.69200000000001</v>
       </c>
       <c r="H5">
-        <v>5258.4380000000001</v>
+        <v>762.12199999999996</v>
       </c>
       <c r="I5">
-        <v>144.60599999999999</v>
+        <v>34.232999999999997</v>
       </c>
       <c r="J5">
-        <v>1103.296</v>
+        <v>323.83</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1138,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>525.82899999999995</v>
+        <v>103.88</v>
       </c>
       <c r="O5">
-        <v>2189.7750000000001</v>
+        <v>438.61599999999999</v>
       </c>
       <c r="P5">
-        <v>1174.49</v>
+        <v>326.83999999999997</v>
       </c>
       <c r="Q5">
-        <v>50.427</v>
+        <v>-12.129</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37195</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2950</v>
       </c>
       <c r="T5">
-        <v>3068.663</v>
+        <v>323.50599999999997</v>
       </c>
       <c r="U5">
-        <v>246.45400000000001</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="V5">
-        <v>166.55699999999999</v>
+        <v>30.806999999999999</v>
       </c>
       <c r="W5">
-        <v>-10.526999999999999</v>
+        <v>-2.3149999999999999</v>
       </c>
       <c r="X5">
-        <v>-80.010999999999996</v>
+        <v>104.139</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1177,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>110.28100000000001</v>
+        <v>17.084</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37287</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>121.676</v>
+        <v>-11.46</v>
       </c>
       <c r="D6">
-        <v>739.20399999999995</v>
+        <v>146.517</v>
       </c>
       <c r="E6">
-        <v>502.96300000000002</v>
+        <v>111.785</v>
       </c>
       <c r="F6">
-        <v>405.84899999999999</v>
+        <v>78.546999999999997</v>
       </c>
       <c r="G6">
-        <v>1115.473</v>
+        <v>225.02</v>
       </c>
       <c r="H6">
-        <v>5319.4170000000004</v>
+        <v>760.58199999999999</v>
       </c>
       <c r="I6">
-        <v>141.94300000000001</v>
+        <v>31.63</v>
       </c>
       <c r="J6">
-        <v>1015.11</v>
+        <v>315.36099999999999</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1101,40 +1218,40 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-12.242000000000001</v>
       </c>
       <c r="N6">
-        <v>554.19600000000003</v>
+        <v>99.465999999999994</v>
       </c>
       <c r="O6">
-        <v>2124.3209999999999</v>
+        <v>426.17200000000003</v>
       </c>
       <c r="P6">
-        <v>1085.0160000000001</v>
+        <v>323.72800000000001</v>
       </c>
       <c r="Q6">
-        <v>91.647000000000006</v>
+        <v>3.5539999999999998</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37287</v>
       </c>
       <c r="S6">
-        <v>8570</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>3195.096</v>
+        <v>334.41</v>
       </c>
       <c r="U6">
-        <v>338.101</v>
+        <v>19.960999999999999</v>
       </c>
       <c r="V6">
-        <v>192.54400000000001</v>
+        <v>11.286</v>
       </c>
       <c r="W6">
-        <v>-10.561</v>
+        <v>-2.5680000000000001</v>
       </c>
       <c r="X6">
-        <v>-74.724999999999994</v>
+        <v>2.8940000000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1260,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>121.676</v>
+        <v>-11.46</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37376</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>108.309</v>
+        <v>17.456</v>
       </c>
       <c r="D7">
-        <v>711.06600000000003</v>
+        <v>150.827</v>
       </c>
       <c r="E7">
-        <v>481.19600000000003</v>
+        <v>123.742</v>
       </c>
       <c r="F7">
-        <v>391.19299999999998</v>
+        <v>82.016000000000005</v>
       </c>
       <c r="G7">
-        <v>1215.912</v>
+        <v>233.95400000000001</v>
       </c>
       <c r="H7">
-        <v>5430.7820000000002</v>
+        <v>773.303</v>
       </c>
       <c r="I7">
-        <v>139.029</v>
+        <v>37.222999999999999</v>
       </c>
       <c r="J7">
-        <v>1014.099</v>
+        <v>292.75400000000002</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,40 +1301,40 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-6.2969999999999997</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>521.35799999999995</v>
+        <v>113.014</v>
       </c>
       <c r="O7">
-        <v>2098.4380000000001</v>
+        <v>416.01799999999997</v>
       </c>
       <c r="P7">
-        <v>1077.6790000000001</v>
+        <v>304.26100000000002</v>
       </c>
       <c r="Q7">
-        <v>113.617</v>
+        <v>-2.556</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37376</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>3332.3440000000001</v>
+        <v>357.28500000000003</v>
       </c>
       <c r="U7">
-        <v>451.71800000000002</v>
+        <v>17.442</v>
       </c>
       <c r="V7">
-        <v>141.45699999999999</v>
+        <v>21.306999999999999</v>
       </c>
       <c r="W7">
-        <v>-13.29</v>
+        <v>-2.5779999999999998</v>
       </c>
       <c r="X7">
-        <v>-2.274</v>
+        <v>-22.858000000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1343,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>108.309</v>
+        <v>17.456</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37468</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>114.813</v>
+        <v>15.032999999999999</v>
       </c>
       <c r="D8">
-        <v>724.87199999999996</v>
+        <v>152.83000000000001</v>
       </c>
       <c r="E8">
-        <v>513.19500000000005</v>
+        <v>133.57900000000001</v>
       </c>
       <c r="F8">
-        <v>397.608</v>
+        <v>82.409000000000006</v>
       </c>
       <c r="G8">
-        <v>1325.377</v>
+        <v>240.65899999999999</v>
       </c>
       <c r="H8">
-        <v>5502.1809999999996</v>
+        <v>848.59799999999996</v>
       </c>
       <c r="I8">
-        <v>139.37899999999999</v>
+        <v>33.889000000000003</v>
       </c>
       <c r="J8">
-        <v>1011.817</v>
+        <v>338.60700000000003</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1387,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>512.61</v>
+        <v>114.855</v>
       </c>
       <c r="O8">
-        <v>2088.17</v>
+        <v>464.45600000000002</v>
       </c>
       <c r="P8">
-        <v>1069.241</v>
+        <v>354.125</v>
       </c>
       <c r="Q8">
-        <v>67.180000000000007</v>
+        <v>-1.7290000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37468</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>3414.011</v>
+        <v>384.142</v>
       </c>
       <c r="U8">
-        <v>518.89800000000002</v>
+        <v>15.647</v>
       </c>
       <c r="V8">
-        <v>119.32599999999999</v>
+        <v>17.707999999999998</v>
       </c>
       <c r="W8">
-        <v>-13.382999999999999</v>
+        <v>-2.5840000000000001</v>
       </c>
       <c r="X8">
-        <v>-17.363</v>
+        <v>44.313000000000002</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1426,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>114.813</v>
+        <v>15.032999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37560</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>116.708</v>
+        <v>19.024000000000001</v>
       </c>
       <c r="D9">
-        <v>747.64099999999996</v>
+        <v>167.28800000000001</v>
       </c>
       <c r="E9">
-        <v>560.04499999999996</v>
+        <v>138.29</v>
       </c>
       <c r="F9">
-        <v>416.55500000000001</v>
+        <v>90.783000000000001</v>
       </c>
       <c r="G9">
-        <v>1217.664</v>
+        <v>248.827</v>
       </c>
       <c r="H9">
-        <v>7049.6379999999999</v>
+        <v>828.97299999999996</v>
       </c>
       <c r="I9">
-        <v>151.15899999999999</v>
+        <v>35.253</v>
       </c>
       <c r="J9">
-        <v>1552.9760000000001</v>
+        <v>311.58999999999997</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,37 +1470,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1112.076</v>
+        <v>130.23699999999999</v>
       </c>
       <c r="O9">
-        <v>3463.02</v>
+        <v>452.96100000000001</v>
       </c>
       <c r="P9">
-        <v>2104.779</v>
+        <v>332.10500000000002</v>
       </c>
       <c r="Q9">
-        <v>-163.78899999999999</v>
+        <v>-3.266</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37560</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="T9">
-        <v>3586.6179999999999</v>
+        <v>376.012</v>
       </c>
       <c r="U9">
-        <v>355.10899999999998</v>
+        <v>12.422000000000001</v>
       </c>
       <c r="V9">
-        <v>205.43100000000001</v>
+        <v>36.457000000000001</v>
       </c>
       <c r="W9">
-        <v>-13.429</v>
+        <v>-2.5870000000000002</v>
       </c>
       <c r="X9">
-        <v>1039.6310000000001</v>
+        <v>-23.568999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1509,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>116.708</v>
+        <v>19.024000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>143.53</v>
+        <v>-39.497</v>
       </c>
       <c r="D10">
-        <v>809.91</v>
+        <v>47.935000000000002</v>
       </c>
       <c r="E10">
-        <v>598.601</v>
+        <v>117.98399999999999</v>
       </c>
       <c r="F10">
-        <v>460.86099999999999</v>
+        <v>4.4630000000000001</v>
       </c>
       <c r="G10">
-        <v>1245.5419999999999</v>
+        <v>247.565</v>
       </c>
       <c r="H10">
-        <v>7071.1040000000003</v>
+        <v>824.96600000000001</v>
       </c>
       <c r="I10">
-        <v>138.34</v>
+        <v>28.38</v>
       </c>
       <c r="J10">
-        <v>1503.107</v>
+        <v>308.68400000000003</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1553,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1086.21</v>
+        <v>121.34399999999999</v>
       </c>
       <c r="O10">
-        <v>3383.3780000000002</v>
+        <v>443.98500000000001</v>
       </c>
       <c r="P10">
-        <v>2022.1220000000001</v>
+        <v>329.601</v>
       </c>
       <c r="Q10">
-        <v>15.481</v>
+        <v>17.672000000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>9475</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>3687.7260000000001</v>
+        <v>380.98099999999999</v>
       </c>
       <c r="U10">
-        <v>370.59</v>
+        <v>15.27</v>
       </c>
       <c r="V10">
-        <v>211.63800000000001</v>
+        <v>-21.224</v>
       </c>
       <c r="W10">
-        <v>-29.800999999999998</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-166.124</v>
+        <v>-36.896999999999998</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1592,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>143.53</v>
+        <v>-39.497</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>124.914</v>
+        <v>12.797000000000001</v>
       </c>
       <c r="D11">
-        <v>737.13499999999999</v>
+        <v>149.44300000000001</v>
       </c>
       <c r="E11">
-        <v>568.80899999999997</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>421.57600000000002</v>
+        <v>78.691000000000003</v>
       </c>
       <c r="G11">
-        <v>1285.056</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>7052.99</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>138.541</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1403.259</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,40 +1633,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-100.05200000000001</v>
+        <v>-2.786</v>
       </c>
       <c r="N11">
-        <v>1082.7729999999999</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>3270.8139999999999</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1919.7729999999999</v>
+        <v>329.601</v>
       </c>
       <c r="Q11">
-        <v>59.432000000000002</v>
+        <v>4.2729999999999997</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3782.1759999999999</v>
+        <v>380.98099999999999</v>
       </c>
       <c r="U11">
-        <v>430.02199999999999</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>171.268</v>
+        <v>11.625</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-2.7530000000000001</v>
       </c>
       <c r="X11">
-        <v>-88.804000000000002</v>
+        <v>-4.335</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1675,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>124.914</v>
+        <v>12.797000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>111.35299999999999</v>
+        <v>12.672000000000001</v>
       </c>
       <c r="D12">
-        <v>784.01</v>
+        <v>166.05500000000001</v>
       </c>
       <c r="E12">
-        <v>631.89099999999996</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>445.50700000000001</v>
+        <v>85.197000000000003</v>
       </c>
       <c r="G12">
-        <v>1328.135</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>8213.7420000000002</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>139.29599999999999</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>2245.424</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1719,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1126.8510000000001</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>4324.1940000000004</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>2758.223</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>-55.451000000000001</v>
+        <v>7.6609999999999996</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3889.5479999999998</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>374.57100000000003</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>139.739</v>
+        <v>24.896999999999998</v>
       </c>
       <c r="W12">
-        <v>-16.338000000000001</v>
+        <v>-2.7610000000000001</v>
       </c>
       <c r="X12">
-        <v>819.71600000000001</v>
+        <v>-15.875999999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1758,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>111.35299999999999</v>
+        <v>12.672000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>136.32300000000001</v>
+        <v>17.873000000000001</v>
       </c>
       <c r="D13">
-        <v>827.81</v>
+        <v>172.06399999999999</v>
       </c>
       <c r="E13">
-        <v>590.65899999999999</v>
+        <v>120.34399999999999</v>
       </c>
       <c r="F13">
-        <v>482.625</v>
+        <v>93.17</v>
       </c>
       <c r="G13">
-        <v>1389.1990000000001</v>
+        <v>235.32499999999999</v>
       </c>
       <c r="H13">
-        <v>8245.5750000000007</v>
+        <v>835.67700000000002</v>
       </c>
       <c r="I13">
-        <v>142.98699999999999</v>
+        <v>33.790999999999997</v>
       </c>
       <c r="J13">
-        <v>2593.607</v>
+        <v>287.47000000000003</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1802,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>634.13699999999994</v>
+        <v>92.632999999999996</v>
       </c>
       <c r="O13">
-        <v>4182.7619999999997</v>
+        <v>393.94900000000001</v>
       </c>
       <c r="P13">
-        <v>2605.857</v>
+        <v>288.48700000000002</v>
       </c>
       <c r="Q13">
-        <v>85.409000000000006</v>
+        <v>-12.694000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4062.8130000000001</v>
+        <v>441.72800000000001</v>
       </c>
       <c r="U13">
-        <v>459.98</v>
+        <v>14.51</v>
       </c>
       <c r="V13">
-        <v>255.76599999999999</v>
+        <v>21.248000000000001</v>
       </c>
       <c r="W13">
-        <v>-16.367999999999999</v>
+        <v>-2.77</v>
       </c>
       <c r="X13">
-        <v>-161.392</v>
+        <v>-28.533000000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1841,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>136.32300000000001</v>
+        <v>17.873000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>165.703</v>
+        <v>1.897</v>
       </c>
       <c r="D14">
-        <v>889.173</v>
+        <v>169.79400000000001</v>
       </c>
       <c r="E14">
-        <v>606.02</v>
+        <v>150.85599999999999</v>
       </c>
       <c r="F14">
-        <v>533.22</v>
+        <v>89.48</v>
       </c>
       <c r="G14">
-        <v>1373.337</v>
+        <v>381.19200000000001</v>
       </c>
       <c r="H14">
-        <v>8184.9809999999998</v>
+        <v>1514.9949999999999</v>
       </c>
       <c r="I14">
-        <v>150.31299999999999</v>
+        <v>45.411999999999999</v>
       </c>
       <c r="J14">
-        <v>2453.8359999999998</v>
+        <v>630.18600000000004</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,37 +1885,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>643.09100000000001</v>
+        <v>161.49700000000001</v>
       </c>
       <c r="O14">
-        <v>3971.931</v>
+        <v>859.21400000000006</v>
       </c>
       <c r="P14">
-        <v>2464.8519999999999</v>
+        <v>651.10900000000004</v>
       </c>
       <c r="Q14">
-        <v>-0.26</v>
+        <v>55.723999999999997</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>9913</v>
+        <v>3700</v>
       </c>
       <c r="T14">
-        <v>4213.05</v>
+        <v>655.78099999999995</v>
       </c>
       <c r="U14">
-        <v>459.72</v>
+        <v>70.233999999999995</v>
       </c>
       <c r="V14">
-        <v>235.78</v>
+        <v>13.523</v>
       </c>
       <c r="W14">
-        <v>-16.385999999999999</v>
+        <v>-3.4540000000000002</v>
       </c>
       <c r="X14">
-        <v>-165.887</v>
+        <v>536.76300000000003</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1924,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>165.703</v>
+        <v>1.897</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15">
-        <v>147.226</v>
+        <v>18.134</v>
       </c>
       <c r="D15">
-        <v>834.05200000000002</v>
+        <v>220.64</v>
       </c>
       <c r="E15">
-        <v>609.35500000000002</v>
+        <v>157.18</v>
       </c>
       <c r="F15">
-        <v>488.93599999999998</v>
+        <v>109.438</v>
       </c>
       <c r="G15">
-        <v>1432.17</v>
+        <v>398.84100000000001</v>
       </c>
       <c r="H15">
-        <v>8189.7030000000004</v>
+        <v>1522.9449999999999</v>
       </c>
       <c r="I15">
-        <v>144.16800000000001</v>
+        <v>46.834000000000003</v>
       </c>
       <c r="J15">
-        <v>2304.143</v>
+        <v>604.16</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,40 +1965,40 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-150.43299999999999</v>
+        <v>-25.78</v>
       </c>
       <c r="N15">
-        <v>667.97299999999996</v>
+        <v>149.779</v>
       </c>
       <c r="O15">
-        <v>3832.4580000000001</v>
+        <v>823.697</v>
       </c>
       <c r="P15">
-        <v>2315.0659999999998</v>
+        <v>624.30899999999997</v>
       </c>
       <c r="Q15">
-        <v>43.164999999999999</v>
+        <v>12.122999999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>4357.2449999999999</v>
+        <v>699.24800000000005</v>
       </c>
       <c r="U15">
-        <v>502.88499999999999</v>
+        <v>82.356999999999999</v>
       </c>
       <c r="V15">
-        <v>212.62799999999999</v>
+        <v>25.582999999999998</v>
       </c>
       <c r="W15">
-        <v>-19.863</v>
+        <v>-3.5419999999999998</v>
       </c>
       <c r="X15">
-        <v>-154.631</v>
+        <v>2.2130000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +2007,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>147.226</v>
+        <v>18.134</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>157.36099999999999</v>
+        <v>23.55</v>
       </c>
       <c r="D16">
-        <v>885.17499999999995</v>
+        <v>232.434</v>
       </c>
       <c r="E16">
-        <v>625.16600000000005</v>
+        <v>161.833</v>
       </c>
       <c r="F16">
-        <v>523.18200000000002</v>
+        <v>116.015</v>
       </c>
       <c r="G16">
-        <v>1524.5250000000001</v>
+        <v>390.55599999999998</v>
       </c>
       <c r="H16">
-        <v>8262.1460000000006</v>
+        <v>1545.2550000000001</v>
       </c>
       <c r="I16">
-        <v>147.661</v>
+        <v>51.37</v>
       </c>
       <c r="J16">
-        <v>2233.8090000000002</v>
+        <v>599.26400000000001</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,37 +2051,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>635.27200000000005</v>
+        <v>151.185</v>
       </c>
       <c r="O16">
-        <v>3714.1309999999999</v>
+        <v>822.87400000000002</v>
       </c>
       <c r="P16">
-        <v>2244.7930000000001</v>
+        <v>619.44799999999998</v>
       </c>
       <c r="Q16">
-        <v>62.396999999999998</v>
+        <v>-7.6239999999999997</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4548.0150000000003</v>
+        <v>722.38099999999997</v>
       </c>
       <c r="U16">
-        <v>565.28200000000004</v>
+        <v>74.733000000000004</v>
       </c>
       <c r="V16">
-        <v>140.50200000000001</v>
+        <v>40.357999999999997</v>
       </c>
       <c r="W16">
-        <v>-19.957999999999998</v>
+        <v>-3.5619999999999998</v>
       </c>
       <c r="X16">
-        <v>-71.713999999999999</v>
+        <v>-5.0129999999999999</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2090,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>157.36099999999999</v>
+        <v>23.55</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>155.51</v>
+        <v>27.382000000000001</v>
       </c>
       <c r="D17">
-        <v>884.12199999999996</v>
+        <v>240.14099999999999</v>
       </c>
       <c r="E17">
-        <v>631.85799999999995</v>
+        <v>169.59200000000001</v>
       </c>
       <c r="F17">
-        <v>524.04</v>
+        <v>119.571</v>
       </c>
       <c r="G17">
-        <v>1532.691</v>
+        <v>411.01400000000001</v>
       </c>
       <c r="H17">
-        <v>8510.2659999999996</v>
+        <v>1573.1379999999999</v>
       </c>
       <c r="I17">
-        <v>145.66</v>
+        <v>46.164999999999999</v>
       </c>
       <c r="J17">
-        <v>2358.4740000000002</v>
+        <v>594.74599999999998</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,37 +2134,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>662.005</v>
+        <v>148.768</v>
       </c>
       <c r="O17">
-        <v>3862.0419999999999</v>
+        <v>817.63199999999995</v>
       </c>
       <c r="P17">
-        <v>2369.5479999999998</v>
+        <v>615.697</v>
       </c>
       <c r="Q17">
-        <v>-1.17</v>
+        <v>27.683</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>4648.2240000000002</v>
+        <v>755.50599999999997</v>
       </c>
       <c r="U17">
-        <v>564.11199999999997</v>
+        <v>102.416</v>
       </c>
       <c r="V17">
-        <v>226.102</v>
+        <v>35.618000000000002</v>
       </c>
       <c r="W17">
-        <v>-20.006</v>
+        <v>-3.5739999999999998</v>
       </c>
       <c r="X17">
-        <v>112.873</v>
+        <v>-3.0830000000000002</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2173,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>155.51</v>
+        <v>27.382000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>185.93600000000001</v>
+        <v>24.786000000000001</v>
       </c>
       <c r="D18">
-        <v>946.14499999999998</v>
+        <v>276.54899999999998</v>
       </c>
       <c r="E18">
-        <v>607.947</v>
+        <v>242.01400000000001</v>
       </c>
       <c r="F18">
-        <v>565.74099999999999</v>
+        <v>140.02099999999999</v>
       </c>
       <c r="G18">
-        <v>1512.105</v>
+        <v>556.16</v>
       </c>
       <c r="H18">
-        <v>8400.1849999999995</v>
+        <v>2366.404</v>
       </c>
       <c r="I18">
-        <v>143.84700000000001</v>
+        <v>65.801000000000002</v>
       </c>
       <c r="J18">
-        <v>2190.2820000000002</v>
+        <v>855.36400000000003</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,37 +2217,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>627.947</v>
+        <v>253.55</v>
       </c>
       <c r="O18">
-        <v>3644.8249999999998</v>
+        <v>1252.318</v>
       </c>
       <c r="P18">
-        <v>2201.3739999999998</v>
+        <v>891.89099999999996</v>
       </c>
       <c r="Q18">
-        <v>46.317999999999998</v>
+        <v>27.003</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>10137</v>
+        <v>5600</v>
       </c>
       <c r="T18">
-        <v>4755.3599999999997</v>
+        <v>1114.086</v>
       </c>
       <c r="U18">
-        <v>610.42999999999995</v>
+        <v>129.41900000000001</v>
       </c>
       <c r="V18">
-        <v>261.209</v>
+        <v>63.265999999999998</v>
       </c>
       <c r="W18">
-        <v>-20.032</v>
+        <v>-3.5230000000000001</v>
       </c>
       <c r="X18">
-        <v>-184.63200000000001</v>
+        <v>554.255</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,39 +2256,39 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>185.93600000000001</v>
+        <v>24.786000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>155.773</v>
+        <v>28.010999999999999</v>
       </c>
       <c r="D19">
-        <v>865.28099999999995</v>
+        <v>333.83699999999999</v>
       </c>
       <c r="E19">
-        <v>606.78499999999997</v>
+        <v>245.66800000000001</v>
       </c>
       <c r="F19">
-        <v>518.16099999999994</v>
+        <v>165.624</v>
       </c>
       <c r="G19">
-        <v>1521.8219999999999</v>
+        <v>533.98900000000003</v>
       </c>
       <c r="H19">
-        <v>8974.6219999999994</v>
+        <v>2356.0740000000001</v>
       </c>
       <c r="I19">
-        <v>151.13900000000001</v>
+        <v>59.939</v>
       </c>
       <c r="J19">
-        <v>2617.7220000000002</v>
+        <v>844.53899999999999</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,40 +2297,40 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-3.4540000000000002</v>
+        <v>-8.407</v>
       </c>
       <c r="N19">
-        <v>699.38400000000001</v>
+        <v>232.57499999999999</v>
       </c>
       <c r="O19">
-        <v>4167.2269999999999</v>
+        <v>1223.0909999999999</v>
       </c>
       <c r="P19">
-        <v>2625.4409999999998</v>
+        <v>880.87699999999995</v>
       </c>
       <c r="Q19">
-        <v>5.0629999999999997</v>
+        <v>-31.193999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>4807.3950000000004</v>
+        <v>1132.9829999999999</v>
       </c>
       <c r="U19">
-        <v>615.49300000000005</v>
+        <v>98.224999999999994</v>
       </c>
       <c r="V19">
-        <v>260.399</v>
+        <v>38.622999999999998</v>
       </c>
       <c r="W19">
-        <v>-25.024000000000001</v>
+        <v>-4.5069999999999997</v>
       </c>
       <c r="X19">
-        <v>386.14400000000001</v>
+        <v>-8.6150000000000002</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,39 +2339,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>155.773</v>
+        <v>28.010999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>171.28</v>
+        <v>35.561999999999998</v>
       </c>
       <c r="D20">
-        <v>889.54100000000005</v>
+        <v>361.56400000000002</v>
       </c>
       <c r="E20">
-        <v>589.59799999999996</v>
+        <v>249.06200000000001</v>
       </c>
       <c r="F20">
-        <v>533.91099999999994</v>
+        <v>181.34200000000001</v>
       </c>
       <c r="G20">
-        <v>1587.2819999999999</v>
+        <v>527.197</v>
       </c>
       <c r="H20">
-        <v>9034.0959999999995</v>
+        <v>2449.6509999999998</v>
       </c>
       <c r="I20">
-        <v>145.584</v>
+        <v>62.709000000000003</v>
       </c>
       <c r="J20">
-        <v>2517.4989999999998</v>
+        <v>883.25900000000001</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,37 +2383,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>654.94100000000003</v>
+        <v>244.14</v>
       </c>
       <c r="O20">
-        <v>4014.7469999999998</v>
+        <v>1288.172</v>
       </c>
       <c r="P20">
-        <v>2524.7069999999999</v>
+        <v>919.23900000000003</v>
       </c>
       <c r="Q20">
-        <v>63.078000000000003</v>
+        <v>-29.826000000000001</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>5019.3490000000002</v>
+        <v>1161.479</v>
       </c>
       <c r="U20">
-        <v>678.57100000000003</v>
+        <v>68.399000000000001</v>
       </c>
       <c r="V20">
-        <v>172.54900000000001</v>
+        <v>62.76</v>
       </c>
       <c r="W20">
-        <v>-25.074999999999999</v>
+        <v>-4.5250000000000004</v>
       </c>
       <c r="X20">
-        <v>-112.90300000000001</v>
+        <v>41.261000000000003</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2422,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>171.28</v>
+        <v>35.561999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>160.417</v>
+        <v>39.194000000000003</v>
       </c>
       <c r="D21">
-        <v>883.93299999999999</v>
+        <v>365.16399999999999</v>
       </c>
       <c r="E21">
-        <v>594.97</v>
+        <v>254.97300000000001</v>
       </c>
       <c r="F21">
-        <v>533.48299999999995</v>
+        <v>185.55699999999999</v>
       </c>
       <c r="G21">
-        <v>1647.8789999999999</v>
+        <v>536.08799999999997</v>
       </c>
       <c r="H21">
-        <v>9432.9989999999998</v>
+        <v>2424.114</v>
       </c>
       <c r="I21">
-        <v>142.261</v>
+        <v>60.085000000000001</v>
       </c>
       <c r="J21">
-        <v>2792.067</v>
+        <v>597.72400000000005</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,37 +2466,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>657.03200000000004</v>
+        <v>468.38600000000002</v>
       </c>
       <c r="O21">
-        <v>4304.0940000000001</v>
+        <v>1222.527</v>
       </c>
       <c r="P21">
-        <v>2798.9780000000001</v>
+        <v>863.73</v>
       </c>
       <c r="Q21">
-        <v>22.007000000000001</v>
+        <v>10.696999999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>5128.9049999999997</v>
+        <v>1201.587</v>
       </c>
       <c r="U21">
-        <v>700.57799999999997</v>
+        <v>79.096000000000004</v>
       </c>
       <c r="V21">
-        <v>226.619</v>
+        <v>74.542000000000002</v>
       </c>
       <c r="W21">
-        <v>-25.111000000000001</v>
+        <v>-4.5609999999999999</v>
       </c>
       <c r="X21">
-        <v>256.09100000000001</v>
+        <v>-55.131</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2505,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>160.417</v>
+        <v>39.194000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22">
-        <v>208.59700000000001</v>
+        <v>50.408000000000001</v>
       </c>
       <c r="D22">
-        <v>943.64</v>
+        <v>393.166</v>
       </c>
       <c r="E22">
-        <v>610.31299999999999</v>
+        <v>257.20999999999998</v>
       </c>
       <c r="F22">
-        <v>579.09100000000001</v>
+        <v>195.684</v>
       </c>
       <c r="G22">
-        <v>1618.047</v>
+        <v>498.20699999999999</v>
       </c>
       <c r="H22">
-        <v>10168.365</v>
+        <v>2522.306</v>
       </c>
       <c r="I22">
-        <v>139.73699999999999</v>
+        <v>71.692999999999998</v>
       </c>
       <c r="J22">
-        <v>3264.4169999999999</v>
+        <v>620.95799999999997</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,37 +2549,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>720.12800000000004</v>
+        <v>505.625</v>
       </c>
       <c r="O22">
-        <v>4869.4179999999997</v>
+        <v>1272.518</v>
       </c>
       <c r="P22">
-        <v>3271.2220000000002</v>
+        <v>894.27099999999996</v>
       </c>
       <c r="Q22">
-        <v>77.933000000000007</v>
+        <v>-25.98</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>10806</v>
+        <v>6000</v>
       </c>
       <c r="T22">
-        <v>5298.9470000000001</v>
+        <v>1249.788</v>
       </c>
       <c r="U22">
-        <v>778.51099999999997</v>
+        <v>53.116</v>
       </c>
       <c r="V22">
-        <v>269.25799999999998</v>
+        <v>105.376</v>
       </c>
       <c r="W22">
-        <v>-25.123999999999999</v>
+        <v>-4.5579999999999998</v>
       </c>
       <c r="X22">
-        <v>466.91</v>
+        <v>27.867999999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,39 +2588,39 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>208.59700000000001</v>
+        <v>50.408000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23">
-        <v>151.416</v>
+        <v>37.686</v>
       </c>
       <c r="D23">
-        <v>902.423</v>
+        <v>382.72300000000001</v>
       </c>
       <c r="E23">
-        <v>635.36199999999997</v>
+        <v>250.85300000000001</v>
       </c>
       <c r="F23">
-        <v>559.51900000000001</v>
+        <v>193.197</v>
       </c>
       <c r="G23">
-        <v>1432.3320000000001</v>
+        <v>515.476</v>
       </c>
       <c r="H23">
-        <v>10224.407999999999</v>
+        <v>2533.5050000000001</v>
       </c>
       <c r="I23">
-        <v>140.42099999999999</v>
+        <v>79.995000000000005</v>
       </c>
       <c r="J23">
-        <v>3105.34</v>
+        <v>587.30799999999999</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,40 +2629,40 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-160.28899999999999</v>
+        <v>-30.51</v>
       </c>
       <c r="N23">
-        <v>779.48800000000006</v>
+        <v>498.29300000000001</v>
       </c>
       <c r="O23">
-        <v>4783.1729999999998</v>
+        <v>1234.5340000000001</v>
       </c>
       <c r="P23">
-        <v>3111.7049999999999</v>
+        <v>864.77499999999998</v>
       </c>
       <c r="Q23">
-        <v>-255.47800000000001</v>
+        <v>14.041</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>5441.2349999999997</v>
+        <v>1298.971</v>
       </c>
       <c r="U23">
-        <v>523.03300000000002</v>
+        <v>67.156999999999996</v>
       </c>
       <c r="V23">
-        <v>207.072</v>
+        <v>57.33</v>
       </c>
       <c r="W23">
-        <v>-30.172999999999998</v>
+        <v>-5.0460000000000003</v>
       </c>
       <c r="X23">
-        <v>-190.18199999999999</v>
+        <v>-27.177</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,39 +2671,39 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>151.416</v>
+        <v>37.686</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>158.06899999999999</v>
+        <v>48.093000000000004</v>
       </c>
       <c r="D24">
-        <v>931.55799999999999</v>
+        <v>425.31</v>
       </c>
       <c r="E24">
-        <v>628.49</v>
+        <v>277.041</v>
       </c>
       <c r="F24">
-        <v>567.52</v>
+        <v>214.88300000000001</v>
       </c>
       <c r="G24">
-        <v>1550.173</v>
+        <v>545.41899999999998</v>
       </c>
       <c r="H24">
-        <v>10297.118</v>
+        <v>2626.7440000000001</v>
       </c>
       <c r="I24">
-        <v>135.59800000000001</v>
+        <v>84.183000000000007</v>
       </c>
       <c r="J24">
-        <v>3086.2629999999999</v>
+        <v>584.43600000000004</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,37 +2715,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>733.04100000000005</v>
+        <v>528.81100000000004</v>
       </c>
       <c r="O24">
-        <v>4746.1009999999997</v>
+        <v>1265.2909999999999</v>
       </c>
       <c r="P24">
-        <v>3092.1489999999999</v>
+        <v>869.11199999999997</v>
       </c>
       <c r="Q24">
-        <v>99.260999999999996</v>
+        <v>-13.773999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>5551.0169999999998</v>
+        <v>1361.453</v>
       </c>
       <c r="U24">
-        <v>622.29399999999998</v>
+        <v>53.383000000000003</v>
       </c>
       <c r="V24">
-        <v>169.76</v>
+        <v>48.426000000000002</v>
       </c>
       <c r="W24">
-        <v>-30.21</v>
+        <v>-5.1429999999999998</v>
       </c>
       <c r="X24">
-        <v>-41.795000000000002</v>
+        <v>1.08</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2754,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>158.06899999999999</v>
+        <v>48.093000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>167.07900000000001</v>
+        <v>50.814</v>
       </c>
       <c r="D25">
-        <v>945.14400000000001</v>
+        <v>427.21699999999998</v>
       </c>
       <c r="E25">
-        <v>617.11500000000001</v>
+        <v>304.38499999999999</v>
       </c>
       <c r="F25">
-        <v>578.49300000000005</v>
+        <v>218.25</v>
       </c>
       <c r="G25">
-        <v>1774.8109999999999</v>
+        <v>575.25400000000002</v>
       </c>
       <c r="H25">
-        <v>10480.128000000001</v>
+        <v>2679.8780000000002</v>
       </c>
       <c r="I25">
-        <v>144.23500000000001</v>
+        <v>91.075999999999993</v>
       </c>
       <c r="J25">
-        <v>3087.1509999999998</v>
+        <v>564.072</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2798,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>771.74</v>
+        <v>546.90599999999995</v>
       </c>
       <c r="O25">
-        <v>4767.6210000000001</v>
+        <v>1260.3989999999999</v>
       </c>
       <c r="P25">
-        <v>3089.0529999999999</v>
+        <v>855.53</v>
       </c>
       <c r="Q25">
-        <v>259.976</v>
+        <v>-12.505000000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>5712.5069999999996</v>
+        <v>1419.479</v>
       </c>
       <c r="U25">
-        <v>882.27</v>
+        <v>40.878</v>
       </c>
       <c r="V25">
-        <v>316.541</v>
+        <v>47.777000000000001</v>
       </c>
       <c r="W25">
-        <v>-30.248999999999999</v>
+        <v>-5.1020000000000003</v>
       </c>
       <c r="X25">
-        <v>-47.317999999999998</v>
+        <v>-13.551</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2837,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>167.07900000000001</v>
+        <v>50.814</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>182.08099999999999</v>
+        <v>56.731000000000002</v>
       </c>
       <c r="D26">
-        <v>1010.8</v>
+        <v>465.48399999999998</v>
       </c>
       <c r="E26">
-        <v>749.81899999999996</v>
+        <v>353.76100000000002</v>
       </c>
       <c r="F26">
-        <v>626.87800000000004</v>
+        <v>238.19499999999999</v>
       </c>
       <c r="G26">
-        <v>1776.501</v>
+        <v>627.495</v>
       </c>
       <c r="H26">
-        <v>14324.927</v>
+        <v>2995.3589999999999</v>
       </c>
       <c r="I26">
-        <v>152.06700000000001</v>
+        <v>96.138999999999996</v>
       </c>
       <c r="J26">
-        <v>5808.5609999999997</v>
+        <v>726.88099999999997</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,37 +2881,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1445.2719999999999</v>
+        <v>587.649</v>
       </c>
       <c r="O26">
-        <v>8536.0619999999999</v>
+        <v>1508.52</v>
       </c>
       <c r="P26">
-        <v>6209.5360000000001</v>
+        <v>1026.7919999999999</v>
       </c>
       <c r="Q26">
-        <v>-125.07</v>
+        <v>28.6</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>14155</v>
+        <v>6900</v>
       </c>
       <c r="T26">
-        <v>5788.8649999999998</v>
+        <v>1486.8389999999999</v>
       </c>
       <c r="U26">
-        <v>757.2</v>
+        <v>69.477999999999994</v>
       </c>
       <c r="V26">
-        <v>270.41199999999998</v>
+        <v>109.005</v>
       </c>
       <c r="W26">
-        <v>-30.498000000000001</v>
+        <v>-5.1109999999999998</v>
       </c>
       <c r="X26">
-        <v>3084.558</v>
+        <v>177.93899999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,39 +2920,39 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>182.08099999999999</v>
+        <v>56.731000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>158.1</v>
+        <v>51.433999999999997</v>
       </c>
       <c r="D27">
-        <v>1086.3</v>
+        <v>478.42700000000002</v>
       </c>
       <c r="E27">
-        <v>693.42700000000002</v>
+        <v>319.24900000000002</v>
       </c>
       <c r="F27">
-        <v>667.6</v>
+        <v>238.94800000000001</v>
       </c>
       <c r="G27">
-        <v>1712.623</v>
+        <v>656.57</v>
       </c>
       <c r="H27">
-        <v>14230.054</v>
+        <v>3112.78</v>
       </c>
       <c r="I27">
-        <v>152.63800000000001</v>
+        <v>100.012</v>
       </c>
       <c r="J27">
-        <v>5439.7</v>
+        <v>748.08399999999995</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,40 +2961,40 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-370</v>
+        <v>-16.375</v>
       </c>
       <c r="N27">
-        <v>1538.538</v>
+        <v>587.39800000000002</v>
       </c>
       <c r="O27">
-        <v>8259.2639999999992</v>
+        <v>1574.45</v>
       </c>
       <c r="P27">
-        <v>5840.7719999999999</v>
+        <v>1056.029</v>
       </c>
       <c r="Q27">
-        <v>-26.5</v>
+        <v>10.964</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>5970.79</v>
+        <v>1538.33</v>
       </c>
       <c r="U27">
-        <v>730.66600000000005</v>
+        <v>80.441999999999993</v>
       </c>
       <c r="V27">
-        <v>378.2</v>
+        <v>57.088000000000001</v>
       </c>
       <c r="W27">
-        <v>-35.4</v>
+        <v>-5.6920000000000002</v>
       </c>
       <c r="X27">
-        <v>-397.1</v>
+        <v>29.356999999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,39 +3003,39 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>158.1</v>
+        <v>51.433999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28">
-        <v>179.5</v>
+        <v>61.228999999999999</v>
       </c>
       <c r="D28">
-        <v>1134.7</v>
+        <v>530.63599999999997</v>
       </c>
       <c r="E28">
-        <v>723.30600000000004</v>
+        <v>330.82400000000001</v>
       </c>
       <c r="F28">
-        <v>705.7</v>
+        <v>262.39499999999998</v>
       </c>
       <c r="G28">
-        <v>1701.1110000000001</v>
+        <v>722.75300000000004</v>
       </c>
       <c r="H28">
-        <v>14213.288</v>
+        <v>3204.3049999999998</v>
       </c>
       <c r="I28">
-        <v>155.37100000000001</v>
+        <v>102.684</v>
       </c>
       <c r="J28">
-        <v>5241.1030000000001</v>
+        <v>736.01599999999996</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,37 +3047,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1498.4960000000001</v>
+        <v>601.91600000000005</v>
       </c>
       <c r="O28">
-        <v>8012.8019999999997</v>
+        <v>1580.8920000000001</v>
       </c>
       <c r="P28">
-        <v>5642.4</v>
+        <v>1050.28</v>
       </c>
       <c r="Q28">
-        <v>-67.400000000000006</v>
+        <v>39.661999999999999</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>6200.4859999999999</v>
+        <v>1623.413</v>
       </c>
       <c r="U28">
-        <v>663.34400000000005</v>
+        <v>120.104</v>
       </c>
       <c r="V28">
-        <v>171.9</v>
+        <v>78.463999999999999</v>
       </c>
       <c r="W28">
-        <v>-35.5</v>
+        <v>-5.7450000000000001</v>
       </c>
       <c r="X28">
-        <v>-221.3</v>
+        <v>-0.17499999999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,39 +3086,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>179.5</v>
+        <v>61.228999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29">
-        <v>190.3</v>
+        <v>65.14</v>
       </c>
       <c r="D29">
-        <v>1159.9000000000001</v>
+        <v>532.90200000000004</v>
       </c>
       <c r="E29">
-        <v>761.726</v>
+        <v>364.75099999999998</v>
       </c>
       <c r="F29">
-        <v>726.4</v>
+        <v>271.779</v>
       </c>
       <c r="G29">
-        <v>1692.056</v>
+        <v>764.11</v>
       </c>
       <c r="H29">
-        <v>14246.673000000001</v>
+        <v>3252.0680000000002</v>
       </c>
       <c r="I29">
-        <v>163.71899999999999</v>
+        <v>106.55500000000001</v>
       </c>
       <c r="J29">
-        <v>4932.7209999999995</v>
+        <v>656.19799999999998</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,37 +3130,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1576.778</v>
+        <v>638.04899999999998</v>
       </c>
       <c r="O29">
-        <v>7787.6890000000003</v>
+        <v>1538.877</v>
       </c>
       <c r="P29">
-        <v>5334.2550000000001</v>
+        <v>978.34500000000003</v>
       </c>
       <c r="Q29">
-        <v>-57.7</v>
+        <v>5.827</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>6458.9840000000004</v>
+        <v>1713.191</v>
       </c>
       <c r="U29">
-        <v>605.61599999999999</v>
+        <v>125.931</v>
       </c>
       <c r="V29">
-        <v>315.60000000000002</v>
+        <v>91.418999999999997</v>
       </c>
       <c r="W29">
-        <v>-35.6</v>
+        <v>-5.7450000000000001</v>
       </c>
       <c r="X29">
-        <v>-331.8</v>
+        <v>-76.224000000000004</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3169,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>190.3</v>
+        <v>65.14</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30">
-        <v>443.9</v>
+        <v>72.23</v>
       </c>
       <c r="D30">
-        <v>1226.5999999999999</v>
+        <v>560.08399999999995</v>
       </c>
       <c r="E30">
-        <v>785.3</v>
+        <v>420.02600000000001</v>
       </c>
       <c r="F30">
-        <v>765.1</v>
+        <v>286.07299999999998</v>
       </c>
       <c r="G30">
-        <v>1759.4</v>
+        <v>951.13699999999994</v>
       </c>
       <c r="H30">
-        <v>14316.4</v>
+        <v>3453.1840000000002</v>
       </c>
       <c r="I30">
-        <v>171.1</v>
+        <v>115.809</v>
       </c>
       <c r="J30">
-        <v>4354.6000000000004</v>
+        <v>727.48900000000003</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,37 +3213,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2029.4</v>
+        <v>667.53</v>
       </c>
       <c r="O30">
-        <v>7452.8</v>
+        <v>1663.3779999999999</v>
       </c>
       <c r="P30">
-        <v>5155.5</v>
+        <v>1058.5920000000001</v>
       </c>
       <c r="Q30">
-        <v>65.7</v>
+        <v>182.83699999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>14236</v>
+        <v>7100</v>
       </c>
       <c r="T30">
-        <v>6863.6</v>
+        <v>1789.806</v>
       </c>
       <c r="U30">
-        <v>671.3</v>
+        <v>308.76799999999997</v>
       </c>
       <c r="V30">
-        <v>368.8</v>
+        <v>116.836</v>
       </c>
       <c r="W30">
-        <v>-36.299999999999997</v>
+        <v>-5.7720000000000002</v>
       </c>
       <c r="X30">
-        <v>-219.8</v>
+        <v>76.59</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,39 +3252,39 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>443.9</v>
+        <v>72.23</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31">
-        <v>211.3</v>
+        <v>62.451000000000001</v>
       </c>
       <c r="D31">
-        <v>1202.5</v>
+        <v>542.995</v>
       </c>
       <c r="E31">
-        <v>788.8</v>
+        <v>436.423</v>
       </c>
       <c r="F31">
-        <v>750.5</v>
+        <v>276.39</v>
       </c>
       <c r="G31">
-        <v>1502</v>
+        <v>836.15700000000004</v>
       </c>
       <c r="H31">
-        <v>14074.1</v>
+        <v>3761.7040000000002</v>
       </c>
       <c r="I31">
-        <v>171.1</v>
+        <v>121.99</v>
       </c>
       <c r="J31">
-        <v>3820.7</v>
+        <v>802.84799999999996</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,40 +3293,40 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-535</v>
+        <v>-24.562999999999999</v>
       </c>
       <c r="N31">
-        <v>2047.5</v>
+        <v>771.99599999999998</v>
       </c>
       <c r="O31">
-        <v>6918.6</v>
+        <v>1885.9359999999999</v>
       </c>
       <c r="P31">
-        <v>4622</v>
+        <v>1215.9580000000001</v>
       </c>
       <c r="Q31">
-        <v>-305.10000000000002</v>
+        <v>-157.56800000000001</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>7155.5</v>
+        <v>1875.768</v>
       </c>
       <c r="U31">
-        <v>366.2</v>
+        <v>151.19999999999999</v>
       </c>
       <c r="V31">
-        <v>281.7</v>
+        <v>71.593000000000004</v>
       </c>
       <c r="W31">
-        <v>-42.1</v>
+        <v>-6.4279999999999999</v>
       </c>
       <c r="X31">
-        <v>-551.6</v>
+        <v>152.38499999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,39 +3335,39 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>211.3</v>
+        <v>62.451000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32">
-        <v>228.4</v>
+        <v>74.522999999999996</v>
       </c>
       <c r="D32">
-        <v>1293.7</v>
+        <v>594.41399999999999</v>
       </c>
       <c r="E32">
-        <v>849.3</v>
+        <v>453.95800000000003</v>
       </c>
       <c r="F32">
-        <v>815.9</v>
+        <v>305.33</v>
       </c>
       <c r="G32">
-        <v>1651.1</v>
+        <v>850.32399999999996</v>
       </c>
       <c r="H32">
-        <v>15361</v>
+        <v>3762.4830000000002</v>
       </c>
       <c r="I32">
-        <v>165.2</v>
+        <v>118.718</v>
       </c>
       <c r="J32">
-        <v>4821.7</v>
+        <v>651.51199999999994</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,37 +3379,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2066.4</v>
+        <v>856.37</v>
       </c>
       <c r="O32">
-        <v>8058.1</v>
+        <v>1804.963</v>
       </c>
       <c r="P32">
-        <v>5623.4</v>
+        <v>1145.7170000000001</v>
       </c>
       <c r="Q32">
-        <v>55.6</v>
+        <v>-5.0140000000000002</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>7302.9</v>
+        <v>1957.52</v>
       </c>
       <c r="U32">
-        <v>421.8</v>
+        <v>146.18600000000001</v>
       </c>
       <c r="V32">
-        <v>266.10000000000002</v>
+        <v>95.703000000000003</v>
       </c>
       <c r="W32">
-        <v>-42.4</v>
+        <v>-6.4790000000000001</v>
       </c>
       <c r="X32">
-        <v>968</v>
+        <v>-68.662000000000006</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3418,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>228.4</v>
+        <v>74.522999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33">
-        <v>247.6</v>
+        <v>74.028999999999996</v>
       </c>
       <c r="D33">
-        <v>1318.7</v>
+        <v>593.1</v>
       </c>
       <c r="E33">
-        <v>847.8</v>
+        <v>466.06599999999997</v>
       </c>
       <c r="F33">
-        <v>840</v>
+        <v>308.76</v>
       </c>
       <c r="G33">
-        <v>1608</v>
+        <v>881.60299999999995</v>
       </c>
       <c r="H33">
-        <v>15245.1</v>
+        <v>4073.431</v>
       </c>
       <c r="I33">
-        <v>163.69999999999999</v>
+        <v>128.33500000000001</v>
       </c>
       <c r="J33">
-        <v>4414.3</v>
+        <v>1113.674</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3462,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2119.3000000000002</v>
+        <v>654.16999999999996</v>
       </c>
       <c r="O33">
-        <v>7690.2</v>
+        <v>2063.3389999999999</v>
       </c>
       <c r="P33">
-        <v>5215.8999999999996</v>
+        <v>1346.35</v>
       </c>
       <c r="Q33">
-        <v>-58.4</v>
+        <v>10.086</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>7554.9</v>
+        <v>2010.0920000000001</v>
       </c>
       <c r="U33">
-        <v>363.4</v>
+        <v>156.27199999999999</v>
       </c>
       <c r="V33">
-        <v>418.2</v>
+        <v>138.24299999999999</v>
       </c>
       <c r="W33">
-        <v>-42.2</v>
+        <v>-6.4859999999999998</v>
       </c>
       <c r="X33">
-        <v>-457.2</v>
+        <v>187.626</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3501,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>247.6</v>
+        <v>74.028999999999996</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34">
-        <v>257.10000000000002</v>
+        <v>70.870999999999995</v>
       </c>
       <c r="D34">
-        <v>1376.3</v>
+        <v>575.86199999999997</v>
       </c>
       <c r="E34">
-        <v>870.2</v>
+        <v>438.02300000000002</v>
       </c>
       <c r="F34">
-        <v>873.1</v>
+        <v>297.80799999999999</v>
       </c>
       <c r="G34">
-        <v>1610.7</v>
+        <v>858.30700000000002</v>
       </c>
       <c r="H34">
-        <v>15249.5</v>
+        <v>3971.538</v>
       </c>
       <c r="I34">
-        <v>165.3</v>
+        <v>121.807</v>
       </c>
       <c r="J34">
-        <v>4940.2</v>
+        <v>1033.6890000000001</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,37 +3545,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1448.2</v>
+        <v>618.90700000000004</v>
       </c>
       <c r="O34">
-        <v>7511</v>
+        <v>1967.604</v>
       </c>
       <c r="P34">
-        <v>4941.7</v>
+        <v>1267.2149999999999</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>21.797000000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>15611</v>
+        <v>7900</v>
       </c>
       <c r="T34">
-        <v>7738.5</v>
+        <v>2003.934</v>
       </c>
       <c r="U34">
-        <v>364.4</v>
+        <v>178.06899999999999</v>
       </c>
       <c r="V34">
-        <v>464.1</v>
+        <v>128.899</v>
       </c>
       <c r="W34">
-        <v>-43.4</v>
+        <v>-6.4939999999999998</v>
       </c>
       <c r="X34">
-        <v>-347.3</v>
+        <v>-83.43</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,122 +3584,122 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>257.10000000000002</v>
+        <v>70.870999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35">
-        <v>369.6</v>
+        <v>51.558999999999997</v>
       </c>
       <c r="D35">
-        <v>1287.2</v>
+        <v>505.44400000000002</v>
       </c>
       <c r="E35">
-        <v>823.7</v>
+        <v>407.33100000000002</v>
       </c>
       <c r="F35">
-        <v>810.6</v>
+        <v>251.136</v>
       </c>
       <c r="G35">
-        <v>1586</v>
+        <v>843.88199999999995</v>
       </c>
       <c r="H35">
-        <v>15414.1</v>
+        <v>3920.8679999999999</v>
       </c>
       <c r="I35">
-        <v>172.6</v>
+        <v>114.887</v>
       </c>
       <c r="J35">
-        <v>4487</v>
+        <v>1084.5229999999999</v>
       </c>
       <c r="K35">
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-455</v>
+        <v>-83.917000000000002</v>
       </c>
       <c r="N35">
-        <v>1444.7</v>
+        <v>484.64600000000002</v>
       </c>
       <c r="O35">
-        <v>7276.7</v>
+        <v>1881.027</v>
       </c>
       <c r="P35">
-        <v>4782</v>
+        <v>1234.05</v>
       </c>
       <c r="Q35">
-        <v>28.1</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>8137.4</v>
+        <v>2039.8409999999999</v>
       </c>
       <c r="U35">
-        <v>392.5</v>
+        <v>177.50899999999999</v>
       </c>
       <c r="V35">
-        <v>290.3</v>
+        <v>50.576999999999998</v>
       </c>
       <c r="W35">
-        <v>-47.7</v>
+        <v>-7.3940000000000001</v>
       </c>
       <c r="X35">
-        <v>-464.3</v>
+        <v>-40.893999999999998</v>
       </c>
       <c r="Y35">
-        <v>226.5</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>369.6</v>
+        <v>51.558999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36">
-        <v>249.7</v>
+        <v>59.588000000000001</v>
       </c>
       <c r="D36">
-        <v>1330.3</v>
+        <v>504.91</v>
       </c>
       <c r="E36">
-        <v>904.8</v>
+        <v>382.83699999999999</v>
       </c>
       <c r="F36">
-        <v>850</v>
+        <v>255.07</v>
       </c>
       <c r="G36">
-        <v>1602.3</v>
+        <v>865.43700000000001</v>
       </c>
       <c r="H36">
-        <v>15908.3</v>
+        <v>3959.65</v>
       </c>
       <c r="I36">
-        <v>162.19999999999999</v>
+        <v>98.644999999999996</v>
       </c>
       <c r="J36">
-        <v>4718.8999999999996</v>
+        <v>1014.487</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3711,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1443.2</v>
+        <v>474.25799999999998</v>
       </c>
       <c r="O36">
-        <v>7557.3</v>
+        <v>1814.412</v>
       </c>
       <c r="P36">
-        <v>5000.7</v>
+        <v>1163.232</v>
       </c>
       <c r="Q36">
-        <v>-71.7</v>
+        <v>43.317</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>8351</v>
+        <v>2145.2379999999998</v>
       </c>
       <c r="U36">
-        <v>320.8</v>
+        <v>220.82599999999999</v>
       </c>
       <c r="V36">
-        <v>300.8</v>
+        <v>110.285</v>
       </c>
       <c r="W36">
-        <v>-47.9</v>
+        <v>-7.4560000000000004</v>
       </c>
       <c r="X36">
-        <v>181.4</v>
+        <v>-76.957999999999998</v>
       </c>
       <c r="Y36">
-        <v>225.4</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>249.7</v>
+        <v>59.588000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37">
-        <v>277.5</v>
+        <v>56.41</v>
       </c>
       <c r="D37">
-        <v>1354.5</v>
+        <v>485.67599999999999</v>
       </c>
       <c r="E37">
-        <v>895.4</v>
+        <v>384.303</v>
       </c>
       <c r="F37">
-        <v>873.6</v>
+        <v>245.52</v>
       </c>
       <c r="G37">
-        <v>1619.4</v>
+        <v>907.49400000000003</v>
       </c>
       <c r="H37">
-        <v>17819.099999999999</v>
+        <v>4001.8209999999999</v>
       </c>
       <c r="I37">
-        <v>156.80000000000001</v>
+        <v>100.56100000000001</v>
       </c>
       <c r="J37">
-        <v>6195.1</v>
+        <v>1004.357</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3794,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1500.9</v>
+        <v>445.97500000000002</v>
       </c>
       <c r="O37">
-        <v>9247.7999999999993</v>
+        <v>1779.346</v>
       </c>
       <c r="P37">
-        <v>6484.1</v>
+        <v>1124.2090000000001</v>
       </c>
       <c r="Q37">
-        <v>2.2000000000000002</v>
+        <v>35.198</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>8571.2999999999993</v>
+        <v>2222.4749999999999</v>
       </c>
       <c r="U37">
-        <v>323</v>
+        <v>256.024</v>
       </c>
       <c r="V37">
-        <v>404.5</v>
+        <v>86.986999999999995</v>
       </c>
       <c r="W37">
-        <v>-47.9</v>
+        <v>-7.4930000000000003</v>
       </c>
       <c r="X37">
-        <v>1435</v>
+        <v>-48.691000000000003</v>
       </c>
       <c r="Y37">
-        <v>229.7</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>277.5</v>
+        <v>56.41</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38">
-        <v>871.1</v>
+        <v>71.924000000000007</v>
       </c>
       <c r="D38">
-        <v>1394.8</v>
+        <v>553.63800000000003</v>
       </c>
       <c r="E38">
-        <v>975.1</v>
+        <v>438.81099999999998</v>
       </c>
       <c r="F38">
-        <v>892.9</v>
+        <v>295.512</v>
       </c>
       <c r="G38">
-        <v>1999.5</v>
+        <v>870.745</v>
       </c>
       <c r="H38">
-        <v>18108.900000000001</v>
+        <v>4327.7359999999999</v>
       </c>
       <c r="I38">
-        <v>162</v>
+        <v>110.10299999999999</v>
       </c>
       <c r="J38">
-        <v>4673.1000000000004</v>
+        <v>1040.962</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3877,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2397.4</v>
+        <v>478.01100000000002</v>
       </c>
       <c r="O38">
-        <v>8617</v>
+        <v>1906.2460000000001</v>
       </c>
       <c r="P38">
-        <v>5552.1</v>
+        <v>1153.758</v>
       </c>
       <c r="Q38">
-        <v>386.7</v>
+        <v>-88.316000000000003</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>16460</v>
+        <v>7650</v>
       </c>
       <c r="T38">
-        <v>9491.9</v>
+        <v>2421.4899999999998</v>
       </c>
       <c r="U38">
-        <v>709.7</v>
+        <v>167.708</v>
       </c>
       <c r="V38">
-        <v>466.2</v>
+        <v>119.65</v>
       </c>
       <c r="W38">
-        <v>-48.2</v>
+        <v>-7.48</v>
       </c>
       <c r="X38">
-        <v>-975.1</v>
+        <v>152.946</v>
       </c>
       <c r="Y38">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>871.1</v>
+        <v>71.924000000000007</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39">
-        <v>240.3</v>
+        <v>59.725000000000001</v>
       </c>
       <c r="D39">
-        <v>1350.7</v>
+        <v>534.44100000000003</v>
       </c>
       <c r="E39">
-        <v>937.5</v>
+        <v>416.63499999999999</v>
       </c>
       <c r="F39">
-        <v>856.8</v>
+        <v>283.46499999999997</v>
       </c>
       <c r="G39">
-        <v>2273.4</v>
+        <v>862.32299999999998</v>
       </c>
       <c r="H39">
-        <v>18137.8</v>
+        <v>4289.5609999999997</v>
       </c>
       <c r="I39">
-        <v>180.8</v>
+        <v>121.47199999999999</v>
       </c>
       <c r="J39">
-        <v>4674.2</v>
+        <v>1007.443</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,40 +3957,40 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-42.999000000000002</v>
       </c>
       <c r="N39">
-        <v>2366.1</v>
+        <v>448.30399999999997</v>
       </c>
       <c r="O39">
-        <v>8546.5</v>
+        <v>1841.395</v>
       </c>
       <c r="P39">
-        <v>5276.6</v>
+        <v>1118.2470000000001</v>
       </c>
       <c r="Q39">
-        <v>290.10000000000002</v>
+        <v>23.577000000000002</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>9591.2999999999993</v>
+        <v>2448.1660000000002</v>
       </c>
       <c r="U39">
-        <v>999.8</v>
+        <v>191.285</v>
       </c>
       <c r="V39">
-        <v>363.9</v>
+        <v>95.085999999999999</v>
       </c>
       <c r="W39">
-        <v>-53.1</v>
+        <v>-8.8780000000000001</v>
       </c>
       <c r="X39">
-        <v>-38.700000000000003</v>
+        <v>-48.046999999999997</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3882,39 +3999,39 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>240.3</v>
+        <v>59.725000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40">
-        <v>219.2</v>
+        <v>71.281000000000006</v>
       </c>
       <c r="D40">
-        <v>1305</v>
+        <v>567.10400000000004</v>
       </c>
       <c r="E40">
-        <v>963.9</v>
+        <v>428.00799999999998</v>
       </c>
       <c r="F40">
-        <v>843.7</v>
+        <v>301.947</v>
       </c>
       <c r="G40">
-        <v>3179.2</v>
+        <v>985.46799999999996</v>
       </c>
       <c r="H40">
-        <v>19142.3</v>
+        <v>4387.3270000000002</v>
       </c>
       <c r="I40">
-        <v>185.4</v>
+        <v>120.313</v>
       </c>
       <c r="J40">
-        <v>5263.8</v>
+        <v>1016.4</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,37 +4043,37 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2498.6</v>
+        <v>474.18</v>
       </c>
       <c r="O40">
-        <v>9262.6</v>
+        <v>1879.85</v>
       </c>
       <c r="P40">
-        <v>5866.4</v>
+        <v>1128.4280000000001</v>
       </c>
       <c r="Q40">
-        <v>871</v>
+        <v>99.454999999999998</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>9879.7000000000007</v>
+        <v>2507.4769999999999</v>
       </c>
       <c r="U40">
-        <v>1870.8</v>
+        <v>290.74</v>
       </c>
       <c r="V40">
-        <v>449.1</v>
+        <v>110.26900000000001</v>
       </c>
       <c r="W40">
-        <v>-53.5</v>
+        <v>-8.9149999999999991</v>
       </c>
       <c r="X40">
-        <v>571.6</v>
+        <v>-0.51800000000000002</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3965,39 +4082,39 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>219.2</v>
+        <v>71.281000000000006</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41">
-        <v>234.4</v>
+        <v>84.263000000000005</v>
       </c>
       <c r="D41">
-        <v>1366.1</v>
+        <v>605.08799999999997</v>
       </c>
       <c r="E41">
-        <v>1023.3</v>
+        <v>455.25099999999998</v>
       </c>
       <c r="F41">
-        <v>875.9</v>
+        <v>321.74900000000002</v>
       </c>
       <c r="G41">
-        <v>1706.2</v>
+        <v>957.64200000000005</v>
       </c>
       <c r="H41">
-        <v>23652</v>
+        <v>5056.1270000000004</v>
       </c>
       <c r="I41">
-        <v>173.1</v>
+        <v>134.316</v>
       </c>
       <c r="J41">
-        <v>9101.2000000000007</v>
+        <v>1380.742</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,37 +4126,37 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2339.9</v>
+        <v>509.346</v>
       </c>
       <c r="O41">
-        <v>13491.1</v>
+        <v>2419.752</v>
       </c>
       <c r="P41">
-        <v>9704</v>
+        <v>1476.53</v>
       </c>
       <c r="Q41">
-        <v>-1568.7</v>
+        <v>-39.927</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>10160.9</v>
+        <v>2636.375</v>
       </c>
       <c r="U41">
-        <v>302.10000000000002</v>
+        <v>250.81299999999999</v>
       </c>
       <c r="V41">
-        <v>137.9</v>
+        <v>139.06299999999999</v>
       </c>
       <c r="W41">
-        <v>-53.4</v>
+        <v>-8.9290000000000003</v>
       </c>
       <c r="X41">
-        <v>3803.5</v>
+        <v>341.88400000000001</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -4048,89 +4165,3409 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>234.4</v>
+        <v>84.263000000000005</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
+        <v>40543</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42">
+        <v>107.31100000000001</v>
+      </c>
+      <c r="D42">
+        <v>679.47900000000004</v>
+      </c>
+      <c r="E42">
+        <v>478.95699999999999</v>
+      </c>
+      <c r="F42">
+        <v>371.86500000000001</v>
+      </c>
+      <c r="G42">
+        <v>998.09100000000001</v>
+      </c>
+      <c r="H42">
+        <v>5069.5240000000003</v>
+      </c>
+      <c r="I42">
+        <v>137.77799999999999</v>
+      </c>
+      <c r="J42">
+        <v>1247.703</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>539.64499999999998</v>
+      </c>
+      <c r="O42">
+        <v>2318.6170000000002</v>
+      </c>
+      <c r="P42">
+        <v>1341.0450000000001</v>
+      </c>
+      <c r="Q42">
+        <v>19.581</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>8050</v>
+      </c>
+      <c r="T42">
+        <v>2750.9070000000002</v>
+      </c>
+      <c r="U42">
+        <v>270.39400000000001</v>
+      </c>
+      <c r="V42">
+        <v>155.12200000000001</v>
+      </c>
+      <c r="W42">
+        <v>-8.984</v>
+      </c>
+      <c r="X42">
+        <v>-125.71</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>107.31100000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43">
+        <v>88.978999999999999</v>
+      </c>
+      <c r="D43">
+        <v>645.30899999999997</v>
+      </c>
+      <c r="E43">
+        <v>492.44299999999998</v>
+      </c>
+      <c r="F43">
+        <v>350.096</v>
+      </c>
+      <c r="G43">
+        <v>1029.6400000000001</v>
+      </c>
+      <c r="H43">
+        <v>5096.8940000000002</v>
+      </c>
+      <c r="I43">
+        <v>147.01499999999999</v>
+      </c>
+      <c r="J43">
+        <v>1159.961</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-96.968000000000004</v>
+      </c>
+      <c r="N43">
+        <v>507.541</v>
+      </c>
+      <c r="O43">
+        <v>2214.7649999999999</v>
+      </c>
+      <c r="P43">
+        <v>1241.787</v>
+      </c>
+      <c r="Q43">
+        <v>-8.9469999999999992</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2882.1289999999999</v>
+      </c>
+      <c r="U43">
+        <v>261.447</v>
+      </c>
+      <c r="V43">
+        <v>86.584000000000003</v>
+      </c>
+      <c r="W43">
+        <v>-10.458</v>
+      </c>
+      <c r="X43">
+        <v>-96.081999999999994</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>88.978999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44">
+        <v>106.31100000000001</v>
+      </c>
+      <c r="D44">
+        <v>699.87099999999998</v>
+      </c>
+      <c r="E44">
+        <v>512.22900000000004</v>
+      </c>
+      <c r="F44">
+        <v>377.06299999999999</v>
+      </c>
+      <c r="G44">
+        <v>1002.059</v>
+      </c>
+      <c r="H44">
+        <v>5263.9920000000002</v>
+      </c>
+      <c r="I44">
+        <v>153.518</v>
+      </c>
+      <c r="J44">
+        <v>1173.694</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>541.62300000000005</v>
+      </c>
+      <c r="O44">
+        <v>2280.4380000000001</v>
+      </c>
+      <c r="P44">
+        <v>1246.0129999999999</v>
+      </c>
+      <c r="Q44">
+        <v>-65.42</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2983.5540000000001</v>
+      </c>
+      <c r="U44">
+        <v>196.02699999999999</v>
+      </c>
+      <c r="V44">
+        <v>155.93299999999999</v>
+      </c>
+      <c r="W44">
+        <v>-10.544</v>
+      </c>
+      <c r="X44">
+        <v>-5.8609999999999998</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>106.31100000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45">
+        <v>110.28100000000001</v>
+      </c>
+      <c r="D45">
+        <v>712.70500000000004</v>
+      </c>
+      <c r="E45">
+        <v>495.09899999999999</v>
+      </c>
+      <c r="F45">
+        <v>382.55599999999998</v>
+      </c>
+      <c r="G45">
+        <v>1030.0229999999999</v>
+      </c>
+      <c r="H45">
+        <v>5258.4380000000001</v>
+      </c>
+      <c r="I45">
+        <v>144.60599999999999</v>
+      </c>
+      <c r="J45">
+        <v>1103.296</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>525.82899999999995</v>
+      </c>
+      <c r="O45">
+        <v>2189.7750000000001</v>
+      </c>
+      <c r="P45">
+        <v>1174.49</v>
+      </c>
+      <c r="Q45">
+        <v>50.427</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>3068.663</v>
+      </c>
+      <c r="U45">
+        <v>246.45400000000001</v>
+      </c>
+      <c r="V45">
+        <v>166.55699999999999</v>
+      </c>
+      <c r="W45">
+        <v>-10.526999999999999</v>
+      </c>
+      <c r="X45">
+        <v>-80.010999999999996</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>110.28100000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46">
+        <v>121.676</v>
+      </c>
+      <c r="D46">
+        <v>739.20399999999995</v>
+      </c>
+      <c r="E46">
+        <v>502.96300000000002</v>
+      </c>
+      <c r="F46">
+        <v>405.84899999999999</v>
+      </c>
+      <c r="G46">
+        <v>1115.473</v>
+      </c>
+      <c r="H46">
+        <v>5319.4170000000004</v>
+      </c>
+      <c r="I46">
+        <v>141.94300000000001</v>
+      </c>
+      <c r="J46">
+        <v>1015.11</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>554.19600000000003</v>
+      </c>
+      <c r="O46">
+        <v>2124.3209999999999</v>
+      </c>
+      <c r="P46">
+        <v>1085.0160000000001</v>
+      </c>
+      <c r="Q46">
+        <v>91.647000000000006</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>8570</v>
+      </c>
+      <c r="T46">
+        <v>3195.096</v>
+      </c>
+      <c r="U46">
+        <v>338.101</v>
+      </c>
+      <c r="V46">
+        <v>192.54400000000001</v>
+      </c>
+      <c r="W46">
+        <v>-10.561</v>
+      </c>
+      <c r="X46">
+        <v>-74.724999999999994</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>121.676</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47">
+        <v>108.309</v>
+      </c>
+      <c r="D47">
+        <v>711.06600000000003</v>
+      </c>
+      <c r="E47">
+        <v>481.19600000000003</v>
+      </c>
+      <c r="F47">
+        <v>391.19299999999998</v>
+      </c>
+      <c r="G47">
+        <v>1215.912</v>
+      </c>
+      <c r="H47">
+        <v>5430.7820000000002</v>
+      </c>
+      <c r="I47">
+        <v>139.029</v>
+      </c>
+      <c r="J47">
+        <v>1014.099</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-6.2969999999999997</v>
+      </c>
+      <c r="N47">
+        <v>521.35799999999995</v>
+      </c>
+      <c r="O47">
+        <v>2098.4380000000001</v>
+      </c>
+      <c r="P47">
+        <v>1077.6790000000001</v>
+      </c>
+      <c r="Q47">
+        <v>113.617</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>3332.3440000000001</v>
+      </c>
+      <c r="U47">
+        <v>451.71800000000002</v>
+      </c>
+      <c r="V47">
+        <v>141.45699999999999</v>
+      </c>
+      <c r="W47">
+        <v>-13.29</v>
+      </c>
+      <c r="X47">
+        <v>-2.274</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>108.309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48">
+        <v>114.813</v>
+      </c>
+      <c r="D48">
+        <v>724.87199999999996</v>
+      </c>
+      <c r="E48">
+        <v>513.19500000000005</v>
+      </c>
+      <c r="F48">
+        <v>397.608</v>
+      </c>
+      <c r="G48">
+        <v>1325.377</v>
+      </c>
+      <c r="H48">
+        <v>5502.1809999999996</v>
+      </c>
+      <c r="I48">
+        <v>139.37899999999999</v>
+      </c>
+      <c r="J48">
+        <v>1011.817</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>512.61</v>
+      </c>
+      <c r="O48">
+        <v>2088.17</v>
+      </c>
+      <c r="P48">
+        <v>1069.241</v>
+      </c>
+      <c r="Q48">
+        <v>67.180000000000007</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3414.011</v>
+      </c>
+      <c r="U48">
+        <v>518.89800000000002</v>
+      </c>
+      <c r="V48">
+        <v>119.32599999999999</v>
+      </c>
+      <c r="W48">
+        <v>-13.382999999999999</v>
+      </c>
+      <c r="X48">
+        <v>-17.363</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>114.813</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49">
+        <v>116.708</v>
+      </c>
+      <c r="D49">
+        <v>747.64099999999996</v>
+      </c>
+      <c r="E49">
+        <v>560.04499999999996</v>
+      </c>
+      <c r="F49">
+        <v>416.55500000000001</v>
+      </c>
+      <c r="G49">
+        <v>1217.664</v>
+      </c>
+      <c r="H49">
+        <v>7049.6379999999999</v>
+      </c>
+      <c r="I49">
+        <v>151.15899999999999</v>
+      </c>
+      <c r="J49">
+        <v>1552.9760000000001</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1112.076</v>
+      </c>
+      <c r="O49">
+        <v>3463.02</v>
+      </c>
+      <c r="P49">
+        <v>2104.779</v>
+      </c>
+      <c r="Q49">
+        <v>-163.78899999999999</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>3586.6179999999999</v>
+      </c>
+      <c r="U49">
+        <v>355.10899999999998</v>
+      </c>
+      <c r="V49">
+        <v>205.43100000000001</v>
+      </c>
+      <c r="W49">
+        <v>-13.429</v>
+      </c>
+      <c r="X49">
+        <v>1039.6310000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>116.708</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50">
+        <v>143.53</v>
+      </c>
+      <c r="D50">
+        <v>809.91</v>
+      </c>
+      <c r="E50">
+        <v>598.601</v>
+      </c>
+      <c r="F50">
+        <v>460.86099999999999</v>
+      </c>
+      <c r="G50">
+        <v>1245.5419999999999</v>
+      </c>
+      <c r="H50">
+        <v>7071.1040000000003</v>
+      </c>
+      <c r="I50">
+        <v>138.34</v>
+      </c>
+      <c r="J50">
+        <v>1503.107</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1086.21</v>
+      </c>
+      <c r="O50">
+        <v>3383.3780000000002</v>
+      </c>
+      <c r="P50">
+        <v>2022.1220000000001</v>
+      </c>
+      <c r="Q50">
+        <v>15.481</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>9475</v>
+      </c>
+      <c r="T50">
+        <v>3687.7260000000001</v>
+      </c>
+      <c r="U50">
+        <v>370.59</v>
+      </c>
+      <c r="V50">
+        <v>211.63800000000001</v>
+      </c>
+      <c r="W50">
+        <v>-29.800999999999998</v>
+      </c>
+      <c r="X50">
+        <v>-166.124</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>143.53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51">
+        <v>124.914</v>
+      </c>
+      <c r="D51">
+        <v>737.13499999999999</v>
+      </c>
+      <c r="E51">
+        <v>568.80899999999997</v>
+      </c>
+      <c r="F51">
+        <v>421.57600000000002</v>
+      </c>
+      <c r="G51">
+        <v>1285.056</v>
+      </c>
+      <c r="H51">
+        <v>7052.99</v>
+      </c>
+      <c r="I51">
+        <v>138.541</v>
+      </c>
+      <c r="J51">
+        <v>1403.259</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-100.05200000000001</v>
+      </c>
+      <c r="N51">
+        <v>1082.7729999999999</v>
+      </c>
+      <c r="O51">
+        <v>3270.8139999999999</v>
+      </c>
+      <c r="P51">
+        <v>1919.7729999999999</v>
+      </c>
+      <c r="Q51">
+        <v>59.432000000000002</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3782.1759999999999</v>
+      </c>
+      <c r="U51">
+        <v>430.02199999999999</v>
+      </c>
+      <c r="V51">
+        <v>171.268</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-88.804000000000002</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>124.914</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52">
+        <v>111.35299999999999</v>
+      </c>
+      <c r="D52">
+        <v>784.01</v>
+      </c>
+      <c r="E52">
+        <v>631.89099999999996</v>
+      </c>
+      <c r="F52">
+        <v>445.50700000000001</v>
+      </c>
+      <c r="G52">
+        <v>1328.135</v>
+      </c>
+      <c r="H52">
+        <v>8213.7420000000002</v>
+      </c>
+      <c r="I52">
+        <v>139.29599999999999</v>
+      </c>
+      <c r="J52">
+        <v>2245.424</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1126.8510000000001</v>
+      </c>
+      <c r="O52">
+        <v>4324.1940000000004</v>
+      </c>
+      <c r="P52">
+        <v>2758.223</v>
+      </c>
+      <c r="Q52">
+        <v>-55.451000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>3889.5479999999998</v>
+      </c>
+      <c r="U52">
+        <v>374.57100000000003</v>
+      </c>
+      <c r="V52">
+        <v>139.739</v>
+      </c>
+      <c r="W52">
+        <v>-16.338000000000001</v>
+      </c>
+      <c r="X52">
+        <v>819.71600000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>111.35299999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53">
+        <v>136.32300000000001</v>
+      </c>
+      <c r="D53">
+        <v>827.81</v>
+      </c>
+      <c r="E53">
+        <v>590.65899999999999</v>
+      </c>
+      <c r="F53">
+        <v>482.625</v>
+      </c>
+      <c r="G53">
+        <v>1389.1990000000001</v>
+      </c>
+      <c r="H53">
+        <v>8245.5750000000007</v>
+      </c>
+      <c r="I53">
+        <v>142.98699999999999</v>
+      </c>
+      <c r="J53">
+        <v>2593.607</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>634.13699999999994</v>
+      </c>
+      <c r="O53">
+        <v>4182.7619999999997</v>
+      </c>
+      <c r="P53">
+        <v>2605.857</v>
+      </c>
+      <c r="Q53">
+        <v>85.409000000000006</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>4062.8130000000001</v>
+      </c>
+      <c r="U53">
+        <v>459.98</v>
+      </c>
+      <c r="V53">
+        <v>255.76599999999999</v>
+      </c>
+      <c r="W53">
+        <v>-16.367999999999999</v>
+      </c>
+      <c r="X53">
+        <v>-161.392</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>136.32300000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54">
+        <v>165.703</v>
+      </c>
+      <c r="D54">
+        <v>889.173</v>
+      </c>
+      <c r="E54">
+        <v>606.02</v>
+      </c>
+      <c r="F54">
+        <v>533.22</v>
+      </c>
+      <c r="G54">
+        <v>1373.337</v>
+      </c>
+      <c r="H54">
+        <v>8184.9809999999998</v>
+      </c>
+      <c r="I54">
+        <v>150.31299999999999</v>
+      </c>
+      <c r="J54">
+        <v>2453.8359999999998</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>643.09100000000001</v>
+      </c>
+      <c r="O54">
+        <v>3971.931</v>
+      </c>
+      <c r="P54">
+        <v>2464.8519999999999</v>
+      </c>
+      <c r="Q54">
+        <v>-0.26</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>9913</v>
+      </c>
+      <c r="T54">
+        <v>4213.05</v>
+      </c>
+      <c r="U54">
+        <v>459.72</v>
+      </c>
+      <c r="V54">
+        <v>235.78</v>
+      </c>
+      <c r="W54">
+        <v>-16.385999999999999</v>
+      </c>
+      <c r="X54">
+        <v>-165.887</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>165.703</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55">
+        <v>147.226</v>
+      </c>
+      <c r="D55">
+        <v>834.05200000000002</v>
+      </c>
+      <c r="E55">
+        <v>609.35500000000002</v>
+      </c>
+      <c r="F55">
+        <v>488.93599999999998</v>
+      </c>
+      <c r="G55">
+        <v>1432.17</v>
+      </c>
+      <c r="H55">
+        <v>8189.7030000000004</v>
+      </c>
+      <c r="I55">
+        <v>144.16800000000001</v>
+      </c>
+      <c r="J55">
+        <v>2304.143</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-150.43299999999999</v>
+      </c>
+      <c r="N55">
+        <v>667.97299999999996</v>
+      </c>
+      <c r="O55">
+        <v>3832.4580000000001</v>
+      </c>
+      <c r="P55">
+        <v>2315.0659999999998</v>
+      </c>
+      <c r="Q55">
+        <v>43.164999999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4357.2449999999999</v>
+      </c>
+      <c r="U55">
+        <v>502.88499999999999</v>
+      </c>
+      <c r="V55">
+        <v>212.62799999999999</v>
+      </c>
+      <c r="W55">
+        <v>-19.863</v>
+      </c>
+      <c r="X55">
+        <v>-154.631</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>147.226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56">
+        <v>157.36099999999999</v>
+      </c>
+      <c r="D56">
+        <v>885.17499999999995</v>
+      </c>
+      <c r="E56">
+        <v>625.16600000000005</v>
+      </c>
+      <c r="F56">
+        <v>523.18200000000002</v>
+      </c>
+      <c r="G56">
+        <v>1524.5250000000001</v>
+      </c>
+      <c r="H56">
+        <v>8262.1460000000006</v>
+      </c>
+      <c r="I56">
+        <v>147.661</v>
+      </c>
+      <c r="J56">
+        <v>2233.8090000000002</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>635.27200000000005</v>
+      </c>
+      <c r="O56">
+        <v>3714.1309999999999</v>
+      </c>
+      <c r="P56">
+        <v>2244.7930000000001</v>
+      </c>
+      <c r="Q56">
+        <v>62.396999999999998</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>4548.0150000000003</v>
+      </c>
+      <c r="U56">
+        <v>565.28200000000004</v>
+      </c>
+      <c r="V56">
+        <v>140.50200000000001</v>
+      </c>
+      <c r="W56">
+        <v>-19.957999999999998</v>
+      </c>
+      <c r="X56">
+        <v>-71.713999999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>157.36099999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57">
+        <v>155.51</v>
+      </c>
+      <c r="D57">
+        <v>884.12199999999996</v>
+      </c>
+      <c r="E57">
+        <v>631.85799999999995</v>
+      </c>
+      <c r="F57">
+        <v>524.04</v>
+      </c>
+      <c r="G57">
+        <v>1532.691</v>
+      </c>
+      <c r="H57">
+        <v>8510.2659999999996</v>
+      </c>
+      <c r="I57">
+        <v>145.66</v>
+      </c>
+      <c r="J57">
+        <v>2358.4740000000002</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>662.005</v>
+      </c>
+      <c r="O57">
+        <v>3862.0419999999999</v>
+      </c>
+      <c r="P57">
+        <v>2369.5479999999998</v>
+      </c>
+      <c r="Q57">
+        <v>-1.17</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>4648.2240000000002</v>
+      </c>
+      <c r="U57">
+        <v>564.11199999999997</v>
+      </c>
+      <c r="V57">
+        <v>226.102</v>
+      </c>
+      <c r="W57">
+        <v>-20.006</v>
+      </c>
+      <c r="X57">
+        <v>112.873</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>155.51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58">
+        <v>185.93600000000001</v>
+      </c>
+      <c r="D58">
+        <v>946.14499999999998</v>
+      </c>
+      <c r="E58">
+        <v>607.947</v>
+      </c>
+      <c r="F58">
+        <v>565.74099999999999</v>
+      </c>
+      <c r="G58">
+        <v>1512.105</v>
+      </c>
+      <c r="H58">
+        <v>8400.1849999999995</v>
+      </c>
+      <c r="I58">
+        <v>143.84700000000001</v>
+      </c>
+      <c r="J58">
+        <v>2190.2820000000002</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>627.947</v>
+      </c>
+      <c r="O58">
+        <v>3644.8249999999998</v>
+      </c>
+      <c r="P58">
+        <v>2201.3739999999998</v>
+      </c>
+      <c r="Q58">
+        <v>46.317999999999998</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>10137</v>
+      </c>
+      <c r="T58">
+        <v>4755.3599999999997</v>
+      </c>
+      <c r="U58">
+        <v>610.42999999999995</v>
+      </c>
+      <c r="V58">
+        <v>261.209</v>
+      </c>
+      <c r="W58">
+        <v>-20.032</v>
+      </c>
+      <c r="X58">
+        <v>-184.63200000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>185.93600000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59">
+        <v>155.773</v>
+      </c>
+      <c r="D59">
+        <v>865.28099999999995</v>
+      </c>
+      <c r="E59">
+        <v>606.78499999999997</v>
+      </c>
+      <c r="F59">
+        <v>518.16099999999994</v>
+      </c>
+      <c r="G59">
+        <v>1521.8219999999999</v>
+      </c>
+      <c r="H59">
+        <v>8974.6219999999994</v>
+      </c>
+      <c r="I59">
+        <v>151.13900000000001</v>
+      </c>
+      <c r="J59">
+        <v>2617.7220000000002</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-3.4540000000000002</v>
+      </c>
+      <c r="N59">
+        <v>699.38400000000001</v>
+      </c>
+      <c r="O59">
+        <v>4167.2269999999999</v>
+      </c>
+      <c r="P59">
+        <v>2625.4409999999998</v>
+      </c>
+      <c r="Q59">
+        <v>5.0629999999999997</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>4807.3950000000004</v>
+      </c>
+      <c r="U59">
+        <v>615.49300000000005</v>
+      </c>
+      <c r="V59">
+        <v>260.399</v>
+      </c>
+      <c r="W59">
+        <v>-25.024000000000001</v>
+      </c>
+      <c r="X59">
+        <v>386.14400000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>155.773</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60">
+        <v>171.28</v>
+      </c>
+      <c r="D60">
+        <v>889.54100000000005</v>
+      </c>
+      <c r="E60">
+        <v>589.59799999999996</v>
+      </c>
+      <c r="F60">
+        <v>533.91099999999994</v>
+      </c>
+      <c r="G60">
+        <v>1587.2819999999999</v>
+      </c>
+      <c r="H60">
+        <v>9034.0959999999995</v>
+      </c>
+      <c r="I60">
+        <v>145.584</v>
+      </c>
+      <c r="J60">
+        <v>2517.4989999999998</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>654.94100000000003</v>
+      </c>
+      <c r="O60">
+        <v>4014.7469999999998</v>
+      </c>
+      <c r="P60">
+        <v>2524.7069999999999</v>
+      </c>
+      <c r="Q60">
+        <v>63.078000000000003</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>5019.3490000000002</v>
+      </c>
+      <c r="U60">
+        <v>678.57100000000003</v>
+      </c>
+      <c r="V60">
+        <v>172.54900000000001</v>
+      </c>
+      <c r="W60">
+        <v>-25.074999999999999</v>
+      </c>
+      <c r="X60">
+        <v>-112.90300000000001</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>171.28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61">
+        <v>160.417</v>
+      </c>
+      <c r="D61">
+        <v>883.93299999999999</v>
+      </c>
+      <c r="E61">
+        <v>594.97</v>
+      </c>
+      <c r="F61">
+        <v>533.48299999999995</v>
+      </c>
+      <c r="G61">
+        <v>1647.8789999999999</v>
+      </c>
+      <c r="H61">
+        <v>9432.9989999999998</v>
+      </c>
+      <c r="I61">
+        <v>142.261</v>
+      </c>
+      <c r="J61">
+        <v>2792.067</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>657.03200000000004</v>
+      </c>
+      <c r="O61">
+        <v>4304.0940000000001</v>
+      </c>
+      <c r="P61">
+        <v>2798.9780000000001</v>
+      </c>
+      <c r="Q61">
+        <v>22.007000000000001</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>5128.9049999999997</v>
+      </c>
+      <c r="U61">
+        <v>700.57799999999997</v>
+      </c>
+      <c r="V61">
+        <v>226.619</v>
+      </c>
+      <c r="W61">
+        <v>-25.111000000000001</v>
+      </c>
+      <c r="X61">
+        <v>256.09100000000001</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>160.417</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62">
+        <v>208.59700000000001</v>
+      </c>
+      <c r="D62">
+        <v>943.64</v>
+      </c>
+      <c r="E62">
+        <v>610.31299999999999</v>
+      </c>
+      <c r="F62">
+        <v>579.09100000000001</v>
+      </c>
+      <c r="G62">
+        <v>1618.047</v>
+      </c>
+      <c r="H62">
+        <v>10168.365</v>
+      </c>
+      <c r="I62">
+        <v>139.73699999999999</v>
+      </c>
+      <c r="J62">
+        <v>3264.4169999999999</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>720.12800000000004</v>
+      </c>
+      <c r="O62">
+        <v>4869.4179999999997</v>
+      </c>
+      <c r="P62">
+        <v>3271.2220000000002</v>
+      </c>
+      <c r="Q62">
+        <v>77.933000000000007</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>10806</v>
+      </c>
+      <c r="T62">
+        <v>5298.9470000000001</v>
+      </c>
+      <c r="U62">
+        <v>778.51099999999997</v>
+      </c>
+      <c r="V62">
+        <v>269.25799999999998</v>
+      </c>
+      <c r="W62">
+        <v>-25.123999999999999</v>
+      </c>
+      <c r="X62">
+        <v>466.91</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>208.59700000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63">
+        <v>151.416</v>
+      </c>
+      <c r="D63">
+        <v>902.423</v>
+      </c>
+      <c r="E63">
+        <v>635.36199999999997</v>
+      </c>
+      <c r="F63">
+        <v>559.51900000000001</v>
+      </c>
+      <c r="G63">
+        <v>1432.3320000000001</v>
+      </c>
+      <c r="H63">
+        <v>10224.407999999999</v>
+      </c>
+      <c r="I63">
+        <v>140.42099999999999</v>
+      </c>
+      <c r="J63">
+        <v>3105.34</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-160.28899999999999</v>
+      </c>
+      <c r="N63">
+        <v>779.48800000000006</v>
+      </c>
+      <c r="O63">
+        <v>4783.1729999999998</v>
+      </c>
+      <c r="P63">
+        <v>3111.7049999999999</v>
+      </c>
+      <c r="Q63">
+        <v>-255.47800000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>5441.2349999999997</v>
+      </c>
+      <c r="U63">
+        <v>523.03300000000002</v>
+      </c>
+      <c r="V63">
+        <v>207.072</v>
+      </c>
+      <c r="W63">
+        <v>-30.172999999999998</v>
+      </c>
+      <c r="X63">
+        <v>-190.18199999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>151.416</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64">
+        <v>158.06899999999999</v>
+      </c>
+      <c r="D64">
+        <v>931.55799999999999</v>
+      </c>
+      <c r="E64">
+        <v>628.49</v>
+      </c>
+      <c r="F64">
+        <v>567.52</v>
+      </c>
+      <c r="G64">
+        <v>1550.173</v>
+      </c>
+      <c r="H64">
+        <v>10297.118</v>
+      </c>
+      <c r="I64">
+        <v>135.59800000000001</v>
+      </c>
+      <c r="J64">
+        <v>3086.2629999999999</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>733.04100000000005</v>
+      </c>
+      <c r="O64">
+        <v>4746.1009999999997</v>
+      </c>
+      <c r="P64">
+        <v>3092.1489999999999</v>
+      </c>
+      <c r="Q64">
+        <v>99.260999999999996</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>5551.0169999999998</v>
+      </c>
+      <c r="U64">
+        <v>622.29399999999998</v>
+      </c>
+      <c r="V64">
+        <v>169.76</v>
+      </c>
+      <c r="W64">
+        <v>-30.21</v>
+      </c>
+      <c r="X64">
+        <v>-41.795000000000002</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>158.06899999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65">
+        <v>167.07900000000001</v>
+      </c>
+      <c r="D65">
+        <v>945.14400000000001</v>
+      </c>
+      <c r="E65">
+        <v>617.11500000000001</v>
+      </c>
+      <c r="F65">
+        <v>578.49300000000005</v>
+      </c>
+      <c r="G65">
+        <v>1774.8109999999999</v>
+      </c>
+      <c r="H65">
+        <v>10480.128000000001</v>
+      </c>
+      <c r="I65">
+        <v>144.23500000000001</v>
+      </c>
+      <c r="J65">
+        <v>3087.1509999999998</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>771.74</v>
+      </c>
+      <c r="O65">
+        <v>4767.6210000000001</v>
+      </c>
+      <c r="P65">
+        <v>3089.0529999999999</v>
+      </c>
+      <c r="Q65">
+        <v>259.976</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>5712.5069999999996</v>
+      </c>
+      <c r="U65">
+        <v>882.27</v>
+      </c>
+      <c r="V65">
+        <v>316.541</v>
+      </c>
+      <c r="W65">
+        <v>-30.248999999999999</v>
+      </c>
+      <c r="X65">
+        <v>-47.317999999999998</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>167.07900000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66">
+        <v>182.08099999999999</v>
+      </c>
+      <c r="D66">
+        <v>1010.8</v>
+      </c>
+      <c r="E66">
+        <v>749.81899999999996</v>
+      </c>
+      <c r="F66">
+        <v>626.87800000000004</v>
+      </c>
+      <c r="G66">
+        <v>1776.501</v>
+      </c>
+      <c r="H66">
+        <v>14324.927</v>
+      </c>
+      <c r="I66">
+        <v>152.06700000000001</v>
+      </c>
+      <c r="J66">
+        <v>5808.5609999999997</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1445.2719999999999</v>
+      </c>
+      <c r="O66">
+        <v>8536.0619999999999</v>
+      </c>
+      <c r="P66">
+        <v>6209.5360000000001</v>
+      </c>
+      <c r="Q66">
+        <v>-125.07</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>14155</v>
+      </c>
+      <c r="T66">
+        <v>5788.8649999999998</v>
+      </c>
+      <c r="U66">
+        <v>757.2</v>
+      </c>
+      <c r="V66">
+        <v>270.41199999999998</v>
+      </c>
+      <c r="W66">
+        <v>-30.498000000000001</v>
+      </c>
+      <c r="X66">
+        <v>3084.558</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>182.08099999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67">
+        <v>158.1</v>
+      </c>
+      <c r="D67">
+        <v>1086.3</v>
+      </c>
+      <c r="E67">
+        <v>693.42700000000002</v>
+      </c>
+      <c r="F67">
+        <v>667.6</v>
+      </c>
+      <c r="G67">
+        <v>1712.623</v>
+      </c>
+      <c r="H67">
+        <v>14230.054</v>
+      </c>
+      <c r="I67">
+        <v>152.63800000000001</v>
+      </c>
+      <c r="J67">
+        <v>5439.7</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-370</v>
+      </c>
+      <c r="N67">
+        <v>1538.538</v>
+      </c>
+      <c r="O67">
+        <v>8259.2639999999992</v>
+      </c>
+      <c r="P67">
+        <v>5840.7719999999999</v>
+      </c>
+      <c r="Q67">
+        <v>-26.5</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>5970.79</v>
+      </c>
+      <c r="U67">
+        <v>730.66600000000005</v>
+      </c>
+      <c r="V67">
+        <v>378.2</v>
+      </c>
+      <c r="W67">
+        <v>-35.4</v>
+      </c>
+      <c r="X67">
+        <v>-397.1</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>158.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68">
+        <v>179.5</v>
+      </c>
+      <c r="D68">
+        <v>1134.7</v>
+      </c>
+      <c r="E68">
+        <v>723.30600000000004</v>
+      </c>
+      <c r="F68">
+        <v>705.7</v>
+      </c>
+      <c r="G68">
+        <v>1701.1110000000001</v>
+      </c>
+      <c r="H68">
+        <v>14213.288</v>
+      </c>
+      <c r="I68">
+        <v>155.37100000000001</v>
+      </c>
+      <c r="J68">
+        <v>5241.1030000000001</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1498.4960000000001</v>
+      </c>
+      <c r="O68">
+        <v>8012.8019999999997</v>
+      </c>
+      <c r="P68">
+        <v>5642.4</v>
+      </c>
+      <c r="Q68">
+        <v>-67.400000000000006</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>6200.4859999999999</v>
+      </c>
+      <c r="U68">
+        <v>663.34400000000005</v>
+      </c>
+      <c r="V68">
+        <v>171.9</v>
+      </c>
+      <c r="W68">
+        <v>-35.5</v>
+      </c>
+      <c r="X68">
+        <v>-221.3</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>179.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69">
+        <v>190.3</v>
+      </c>
+      <c r="D69">
+        <v>1159.9000000000001</v>
+      </c>
+      <c r="E69">
+        <v>761.726</v>
+      </c>
+      <c r="F69">
+        <v>726.4</v>
+      </c>
+      <c r="G69">
+        <v>1692.056</v>
+      </c>
+      <c r="H69">
+        <v>14246.673000000001</v>
+      </c>
+      <c r="I69">
+        <v>163.71899999999999</v>
+      </c>
+      <c r="J69">
+        <v>4932.7209999999995</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1576.778</v>
+      </c>
+      <c r="O69">
+        <v>7787.6890000000003</v>
+      </c>
+      <c r="P69">
+        <v>5334.2550000000001</v>
+      </c>
+      <c r="Q69">
+        <v>-57.7</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>6458.9840000000004</v>
+      </c>
+      <c r="U69">
+        <v>605.61599999999999</v>
+      </c>
+      <c r="V69">
+        <v>315.60000000000002</v>
+      </c>
+      <c r="W69">
+        <v>-35.6</v>
+      </c>
+      <c r="X69">
+        <v>-331.8</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>190.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70">
+        <v>443.9</v>
+      </c>
+      <c r="D70">
+        <v>1226.5999999999999</v>
+      </c>
+      <c r="E70">
+        <v>785.3</v>
+      </c>
+      <c r="F70">
+        <v>765.1</v>
+      </c>
+      <c r="G70">
+        <v>1759.4</v>
+      </c>
+      <c r="H70">
+        <v>14316.4</v>
+      </c>
+      <c r="I70">
+        <v>171.1</v>
+      </c>
+      <c r="J70">
+        <v>4354.6000000000004</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2029.4</v>
+      </c>
+      <c r="O70">
+        <v>7452.8</v>
+      </c>
+      <c r="P70">
+        <v>5155.5</v>
+      </c>
+      <c r="Q70">
+        <v>65.7</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>14236</v>
+      </c>
+      <c r="T70">
+        <v>6863.6</v>
+      </c>
+      <c r="U70">
+        <v>671.3</v>
+      </c>
+      <c r="V70">
+        <v>368.8</v>
+      </c>
+      <c r="W70">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="X70">
+        <v>-219.8</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>443.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71">
+        <v>211.3</v>
+      </c>
+      <c r="D71">
+        <v>1202.5</v>
+      </c>
+      <c r="E71">
+        <v>788.8</v>
+      </c>
+      <c r="F71">
+        <v>750.5</v>
+      </c>
+      <c r="G71">
+        <v>1502</v>
+      </c>
+      <c r="H71">
+        <v>14074.1</v>
+      </c>
+      <c r="I71">
+        <v>171.1</v>
+      </c>
+      <c r="J71">
+        <v>3820.7</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-535</v>
+      </c>
+      <c r="N71">
+        <v>2047.5</v>
+      </c>
+      <c r="O71">
+        <v>6918.6</v>
+      </c>
+      <c r="P71">
+        <v>4622</v>
+      </c>
+      <c r="Q71">
+        <v>-305.10000000000002</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>7155.5</v>
+      </c>
+      <c r="U71">
+        <v>366.2</v>
+      </c>
+      <c r="V71">
+        <v>281.7</v>
+      </c>
+      <c r="W71">
+        <v>-42.1</v>
+      </c>
+      <c r="X71">
+        <v>-551.6</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>211.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72">
+        <v>228.4</v>
+      </c>
+      <c r="D72">
+        <v>1293.7</v>
+      </c>
+      <c r="E72">
+        <v>849.3</v>
+      </c>
+      <c r="F72">
+        <v>815.9</v>
+      </c>
+      <c r="G72">
+        <v>1651.1</v>
+      </c>
+      <c r="H72">
+        <v>15361</v>
+      </c>
+      <c r="I72">
+        <v>165.2</v>
+      </c>
+      <c r="J72">
+        <v>4821.7</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2066.4</v>
+      </c>
+      <c r="O72">
+        <v>8058.1</v>
+      </c>
+      <c r="P72">
+        <v>5623.4</v>
+      </c>
+      <c r="Q72">
+        <v>55.6</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>7302.9</v>
+      </c>
+      <c r="U72">
+        <v>421.8</v>
+      </c>
+      <c r="V72">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="W72">
+        <v>-42.4</v>
+      </c>
+      <c r="X72">
+        <v>968</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>228.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73">
+        <v>247.6</v>
+      </c>
+      <c r="D73">
+        <v>1318.7</v>
+      </c>
+      <c r="E73">
+        <v>847.8</v>
+      </c>
+      <c r="F73">
+        <v>840</v>
+      </c>
+      <c r="G73">
+        <v>1608</v>
+      </c>
+      <c r="H73">
+        <v>15245.1</v>
+      </c>
+      <c r="I73">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="J73">
+        <v>4414.3</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2119.3000000000002</v>
+      </c>
+      <c r="O73">
+        <v>7690.2</v>
+      </c>
+      <c r="P73">
+        <v>5215.8999999999996</v>
+      </c>
+      <c r="Q73">
+        <v>-58.4</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>7554.9</v>
+      </c>
+      <c r="U73">
+        <v>363.4</v>
+      </c>
+      <c r="V73">
+        <v>418.2</v>
+      </c>
+      <c r="W73">
+        <v>-42.2</v>
+      </c>
+      <c r="X73">
+        <v>-457.2</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>247.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="D74">
+        <v>1376.3</v>
+      </c>
+      <c r="E74">
+        <v>870.2</v>
+      </c>
+      <c r="F74">
+        <v>873.1</v>
+      </c>
+      <c r="G74">
+        <v>1610.7</v>
+      </c>
+      <c r="H74">
+        <v>15249.5</v>
+      </c>
+      <c r="I74">
+        <v>165.3</v>
+      </c>
+      <c r="J74">
+        <v>4940.2</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1448.2</v>
+      </c>
+      <c r="O74">
+        <v>7511</v>
+      </c>
+      <c r="P74">
+        <v>4941.7</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>15611</v>
+      </c>
+      <c r="T74">
+        <v>7738.5</v>
+      </c>
+      <c r="U74">
+        <v>364.4</v>
+      </c>
+      <c r="V74">
+        <v>464.1</v>
+      </c>
+      <c r="W74">
+        <v>-43.4</v>
+      </c>
+      <c r="X74">
+        <v>-347.3</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>257.10000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75">
+        <v>369.6</v>
+      </c>
+      <c r="D75">
+        <v>1287.2</v>
+      </c>
+      <c r="E75">
+        <v>823.7</v>
+      </c>
+      <c r="F75">
+        <v>810.6</v>
+      </c>
+      <c r="G75">
+        <v>1586</v>
+      </c>
+      <c r="H75">
+        <v>15414.1</v>
+      </c>
+      <c r="I75">
+        <v>172.6</v>
+      </c>
+      <c r="J75">
+        <v>4487</v>
+      </c>
+      <c r="K75">
+        <v>14.1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-455</v>
+      </c>
+      <c r="N75">
+        <v>1444.7</v>
+      </c>
+      <c r="O75">
+        <v>7276.7</v>
+      </c>
+      <c r="P75">
+        <v>4782</v>
+      </c>
+      <c r="Q75">
+        <v>28.1</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>8137.4</v>
+      </c>
+      <c r="U75">
+        <v>392.5</v>
+      </c>
+      <c r="V75">
+        <v>290.3</v>
+      </c>
+      <c r="W75">
+        <v>-47.7</v>
+      </c>
+      <c r="X75">
+        <v>-464.3</v>
+      </c>
+      <c r="Y75">
+        <v>226.5</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>369.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76">
+        <v>249.7</v>
+      </c>
+      <c r="D76">
+        <v>1330.3</v>
+      </c>
+      <c r="E76">
+        <v>904.8</v>
+      </c>
+      <c r="F76">
+        <v>850</v>
+      </c>
+      <c r="G76">
+        <v>1602.3</v>
+      </c>
+      <c r="H76">
+        <v>15908.3</v>
+      </c>
+      <c r="I76">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="J76">
+        <v>4718.8999999999996</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1443.2</v>
+      </c>
+      <c r="O76">
+        <v>7557.3</v>
+      </c>
+      <c r="P76">
+        <v>5000.7</v>
+      </c>
+      <c r="Q76">
+        <v>-71.7</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>8351</v>
+      </c>
+      <c r="U76">
+        <v>320.8</v>
+      </c>
+      <c r="V76">
+        <v>300.8</v>
+      </c>
+      <c r="W76">
+        <v>-47.9</v>
+      </c>
+      <c r="X76">
+        <v>181.4</v>
+      </c>
+      <c r="Y76">
+        <v>225.4</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>249.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77">
+        <v>277.5</v>
+      </c>
+      <c r="D77">
+        <v>1354.5</v>
+      </c>
+      <c r="E77">
+        <v>895.4</v>
+      </c>
+      <c r="F77">
+        <v>873.6</v>
+      </c>
+      <c r="G77">
+        <v>1619.4</v>
+      </c>
+      <c r="H77">
+        <v>17819.099999999999</v>
+      </c>
+      <c r="I77">
+        <v>156.80000000000001</v>
+      </c>
+      <c r="J77">
+        <v>6195.1</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1500.9</v>
+      </c>
+      <c r="O77">
+        <v>9247.7999999999993</v>
+      </c>
+      <c r="P77">
+        <v>6484.1</v>
+      </c>
+      <c r="Q77">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>8571.2999999999993</v>
+      </c>
+      <c r="U77">
+        <v>323</v>
+      </c>
+      <c r="V77">
+        <v>404.5</v>
+      </c>
+      <c r="W77">
+        <v>-47.9</v>
+      </c>
+      <c r="X77">
+        <v>1435</v>
+      </c>
+      <c r="Y77">
+        <v>229.7</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>277.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78">
+        <v>871.1</v>
+      </c>
+      <c r="D78">
+        <v>1394.8</v>
+      </c>
+      <c r="E78">
+        <v>975.1</v>
+      </c>
+      <c r="F78">
+        <v>892.9</v>
+      </c>
+      <c r="G78">
+        <v>1999.5</v>
+      </c>
+      <c r="H78">
+        <v>18108.900000000001</v>
+      </c>
+      <c r="I78">
+        <v>162</v>
+      </c>
+      <c r="J78">
+        <v>4673.1000000000004</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2397.4</v>
+      </c>
+      <c r="O78">
+        <v>8617</v>
+      </c>
+      <c r="P78">
+        <v>5552.1</v>
+      </c>
+      <c r="Q78">
+        <v>386.7</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>16460</v>
+      </c>
+      <c r="T78">
+        <v>9491.9</v>
+      </c>
+      <c r="U78">
+        <v>709.7</v>
+      </c>
+      <c r="V78">
+        <v>466.2</v>
+      </c>
+      <c r="W78">
+        <v>-48.2</v>
+      </c>
+      <c r="X78">
+        <v>-975.1</v>
+      </c>
+      <c r="Y78">
+        <v>220</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>871.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79">
+        <v>240.3</v>
+      </c>
+      <c r="D79">
+        <v>1350.7</v>
+      </c>
+      <c r="E79">
+        <v>937.5</v>
+      </c>
+      <c r="F79">
+        <v>856.8</v>
+      </c>
+      <c r="G79">
+        <v>2273.4</v>
+      </c>
+      <c r="H79">
+        <v>18137.8</v>
+      </c>
+      <c r="I79">
+        <v>180.8</v>
+      </c>
+      <c r="J79">
+        <v>4674.2</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>2366.1</v>
+      </c>
+      <c r="O79">
+        <v>8546.5</v>
+      </c>
+      <c r="P79">
+        <v>5276.6</v>
+      </c>
+      <c r="Q79">
+        <v>290.10000000000002</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>9591.2999999999993</v>
+      </c>
+      <c r="U79">
+        <v>999.8</v>
+      </c>
+      <c r="V79">
+        <v>363.9</v>
+      </c>
+      <c r="W79">
+        <v>-53.1</v>
+      </c>
+      <c r="X79">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>240.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80">
+        <v>219.2</v>
+      </c>
+      <c r="D80">
+        <v>1305</v>
+      </c>
+      <c r="E80">
+        <v>963.9</v>
+      </c>
+      <c r="F80">
+        <v>843.7</v>
+      </c>
+      <c r="G80">
+        <v>3179.2</v>
+      </c>
+      <c r="H80">
+        <v>19142.3</v>
+      </c>
+      <c r="I80">
+        <v>185.4</v>
+      </c>
+      <c r="J80">
+        <v>5263.8</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2498.6</v>
+      </c>
+      <c r="O80">
+        <v>9262.6</v>
+      </c>
+      <c r="P80">
+        <v>5866.4</v>
+      </c>
+      <c r="Q80">
+        <v>871</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>9879.7000000000007</v>
+      </c>
+      <c r="U80">
+        <v>1870.8</v>
+      </c>
+      <c r="V80">
+        <v>449.1</v>
+      </c>
+      <c r="W80">
+        <v>-53.5</v>
+      </c>
+      <c r="X80">
+        <v>571.6</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>219.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81">
+        <v>234.4</v>
+      </c>
+      <c r="D81">
+        <v>1366.1</v>
+      </c>
+      <c r="E81">
+        <v>1023.3</v>
+      </c>
+      <c r="F81">
+        <v>875.9</v>
+      </c>
+      <c r="G81">
+        <v>1706.2</v>
+      </c>
+      <c r="H81">
+        <v>23652</v>
+      </c>
+      <c r="I81">
+        <v>173.1</v>
+      </c>
+      <c r="J81">
+        <v>9101.2000000000007</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2339.9</v>
+      </c>
+      <c r="O81">
+        <v>13491.1</v>
+      </c>
+      <c r="P81">
+        <v>9704</v>
+      </c>
+      <c r="Q81">
+        <v>-1568.7</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>10160.9</v>
+      </c>
+      <c r="U81">
+        <v>302.10000000000002</v>
+      </c>
+      <c r="V81">
+        <v>137.9</v>
+      </c>
+      <c r="W81">
+        <v>-53.4</v>
+      </c>
+      <c r="X81">
+        <v>3803.5</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>234.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
         <v>44196</v>
       </c>
-      <c r="B42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42">
+      <c r="B82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82">
         <v>255.8</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1505.3</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1104.7</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>966.6</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1752.3</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>24024.799999999999</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>177.8</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>9064.5</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2444.4</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>13545</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>9850.7999999999993</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>6.2</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>18400</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>10479.799999999999</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>308.3</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>574.20000000000005</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-54.1</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-199.5</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>219.2</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>255.8</v>
       </c>
     </row>
